--- a/results/spreadsheets/Results Overview.xlsx
+++ b/results/spreadsheets/Results Overview.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9690"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="112">
   <si>
     <t>Method</t>
   </si>
@@ -244,16 +244,128 @@
     <t>pde-uxt</t>
   </si>
   <si>
-    <t>dPDEdt</t>
-  </si>
-  <si>
-    <t>dPDEdxt</t>
+    <t>Sequential: residual -&gt; uxt</t>
+  </si>
+  <si>
+    <t>k1,k0.5, Ham</t>
+  </si>
+  <si>
+    <t>Two methods</t>
+  </si>
+  <si>
+    <t>Sequential methods</t>
+  </si>
+  <si>
+    <t>Res (1,1) -&gt; uxt (0.5,1)</t>
+  </si>
+  <si>
+    <t>50 Loops</t>
+  </si>
+  <si>
+    <t>75 Loops</t>
+  </si>
+  <si>
+    <t>30 Loops (15k + 60k)</t>
+  </si>
+  <si>
+    <t>Damping hyp c - PDE</t>
+  </si>
+  <si>
+    <t>Damping hyp c - Uxt</t>
+  </si>
+  <si>
+    <t>linearly</t>
+  </si>
+  <si>
+    <t>Curvature, Depth 4</t>
+  </si>
+  <si>
+    <t>Wu</t>
+  </si>
+  <si>
+    <t>Sequential: PDE, Curvature</t>
+  </si>
+  <si>
+    <t>PDE, Damping c</t>
+  </si>
+  <si>
+    <t>Curvature, Damping c</t>
+  </si>
+  <si>
+    <t>Error Table</t>
+  </si>
+  <si>
+    <t>40 Loops</t>
+  </si>
+  <si>
+    <t>20 Loops</t>
+  </si>
+  <si>
+    <t>dPDEdxt - 1,1</t>
+  </si>
+  <si>
+    <t>dPDEdxt - 0.5,1</t>
+  </si>
+  <si>
+    <t>k=1</t>
+  </si>
+  <si>
+    <t>k=0.5</t>
+  </si>
+  <si>
+    <t>d^2(PDE)/dxdt, 1,1</t>
+  </si>
+  <si>
+    <t>d^2(PDE)/dxdt 0.5,1</t>
+  </si>
+  <si>
+    <t>Dual: Res &amp; Uxt</t>
+  </si>
+  <si>
+    <t>PDE+uxt(1,1)</t>
+  </si>
+  <si>
+    <t>100 Loops</t>
+  </si>
+  <si>
+    <t>Standard Deviation Table</t>
+  </si>
+  <si>
+    <t>Dual Res+uxt</t>
+  </si>
+  <si>
+    <t>Time taken Table</t>
+  </si>
+  <si>
+    <t>ERROR</t>
+  </si>
+  <si>
+    <t>STDEV</t>
+  </si>
+  <si>
+    <t>TIME</t>
+  </si>
+  <si>
+    <t>Reducing the number of points</t>
+  </si>
+  <si>
+    <t>k, c study</t>
+  </si>
+  <si>
+    <t>further work</t>
+  </si>
+  <si>
+    <t>Remembering - Re-evaluating points after some learning</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000%"/>
+    <numFmt numFmtId="165" formatCode="0.000E+00"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -271,7 +383,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -281,6 +393,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,7 +596,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -529,6 +659,80 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -544,6 +748,5331 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$I$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Curvature</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Summary!$J$21:$O$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Summary!$J$23:$O$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8.5667668351096279E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.4480227414658392E-4</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.000E+00">
+                  <c:v>6.0480093642154746E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.1044903107726793E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.0771391922615059E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.3920651388314727E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D4EF-455D-BF6B-9E4373C46C71}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$I$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Curvature, Damping c</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Summary!$J$21:$O$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Summary!$J$27:$O$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.0731943763652566E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.7625435231766596E-4</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.000E+00">
+                  <c:v>7.7163229061607283E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.559738775014784E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.4824290681767629E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.4609210393863036E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-D4EF-455D-BF6B-9E4373C46C71}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$I$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Wu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Summary!$J$21:$O$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Summary!$J$24:$O$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.7965908612129927E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.3672756771427164E-3</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.000E+00">
+                  <c:v>7.1193674886771278E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1779507279804629E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.4219025580385522E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.1214989102953573E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D4EF-455D-BF6B-9E4373C46C71}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$I$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PDE, Damping c</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Summary!$J$21:$O$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Summary!$J$26:$O$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.1778839428150025E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.7540114042080686E-4</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.000E+00">
+                  <c:v>7.2517764569016716E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.1870612301729855E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.536225367783552E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.7515672608850894E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D4EF-455D-BF6B-9E4373C46C71}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$I$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sequential: PDE, Curvature</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Summary!$J$21:$O$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Summary!$J$25:$O$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.0615147888803126E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.3915790560598544E-4</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.000E+00">
+                  <c:v>6.1132980030005623E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.3140260721857076E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0895493454157427E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0099815032387217E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D4EF-455D-BF6B-9E4373C46C71}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$I$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>d^2(PDE)/dxdt, 1,1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Summary!$J$21:$O$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Summary!$J$28:$O$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.1887469954588049E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.3585580976518067E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.8608826481326852E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.1214832318866226E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.5970391777880799E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.4393194117414089E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-D4EF-455D-BF6B-9E4373C46C71}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$I$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>d^2(PDE)/dxdt 0.5,1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Summary!$J$21:$O$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Summary!$J$29:$O$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6.5585048283764132E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.8027702483174281E-4</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.000E+00">
+                  <c:v>4.6774181848728709E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5463796640383606E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5238005082323935E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.1458273583690084E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-D4EF-455D-BF6B-9E4373C46C71}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$I$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dual Res+uxt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Summary!$J$21:$O$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Summary!$J$30:$O$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8.9725304090880345E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.3917350825916687E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.3159224594648068E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.4985433734484586E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.9661231459146302E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.8362649807386272E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-D4EF-455D-BF6B-9E4373C46C71}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="521184120"/>
+        <c:axId val="521184448"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Summary!$I$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Curvature, Depth 4</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Summary!$J$21:$O$21</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>75</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>100</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Summary!$J$22:$O$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00E+00</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="1">
+                        <c:v>3.0637534254018849E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1.2946342918259546E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1.9994128547158037E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1.8737887100546075E-3</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-D4EF-455D-BF6B-9E4373C46C71}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="521184120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>No. Of Resamples</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="521184448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="521184448"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="1.0000000000000002E-2"/>
+          <c:min val="3.0000000000000008E-4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="521184120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$Q$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Curvature</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Summary!$R$21:$W$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Summary!$R$23:$W$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.4944918866642644E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0121606870400354E-4</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.000E+00">
+                  <c:v>2.2564967775666564E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2581148646597212E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9648041266645349E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.6258165586535845E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8B56-4CCC-9AB3-3AEA3F95FCF6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$Q$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Wu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Summary!$R$21:$W$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Summary!$R$24:$W$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.833697568032246E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0846288992006372E-2</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.000E+00">
+                  <c:v>2.8040200083282672E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.5817494854836E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1909504428447616E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.1619961553775894E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8B56-4CCC-9AB3-3AEA3F95FCF6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$Q$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sequential: PDE, Curvature</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Summary!$R$21:$W$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Summary!$R$25:$W$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.5855365242634932E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8437323687769322E-4</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.000E+00">
+                  <c:v>2.883531750607583E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9817532042598763E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6598058858238658E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5320979745982648E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8B56-4CCC-9AB3-3AEA3F95FCF6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$Q$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PDE, Damping c</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Summary!$R$21:$W$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Summary!$R$26:$W$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6.7391152714480547E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.8082574784065533E-4</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.000E+00">
+                  <c:v>3.5441316396503186E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.180268622669577E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4928907295266711E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1236685518637752E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-8B56-4CCC-9AB3-3AEA3F95FCF6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$Q$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Curvature, Damping c</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Summary!$R$21:$W$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Summary!$R$27:$W$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.7262251212841179E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0211255650059684E-4</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.000E+00">
+                  <c:v>3.2171310306231617E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5934649991930428E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5145479758371069E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.048560416308142E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-8B56-4CCC-9AB3-3AEA3F95FCF6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$Q$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>d^2(PDE)/dxdt, 1,1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Summary!$R$21:$W$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Summary!$R$28:$W$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.000%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" formatCode="0.00E+00">
+                  <c:v>4.1010148933989088E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.924340164122863E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5254146032327017E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0708757795324687E-4</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00E+00">
+                  <c:v>1.4495988867764629E-3</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00E+00">
+                  <c:v>1.3070070314676611E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-8B56-4CCC-9AB3-3AEA3F95FCF6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$Q$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>d^2(PDE)/dxdt 0.5,1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Summary!$R$21:$W$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Summary!$R$29:$W$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.000%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" formatCode="0.00E+00">
+                  <c:v>2.4311694506121251E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7983474244238117E-4</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.000E+00">
+                  <c:v>1.5851590509252848E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8397929008717449E-4</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00E+00">
+                  <c:v>9.3091584430161214E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0966262329428924E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-8B56-4CCC-9AB3-3AEA3F95FCF6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$Q$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dual Res+uxt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Summary!$R$21:$W$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Summary!$R$30:$W$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.4563322242221555E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5328863594137025E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0991569462949945E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8594935223250245E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8310649230282391E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2607741826055321E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-8B56-4CCC-9AB3-3AEA3F95FCF6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="530452656"/>
+        <c:axId val="530450360"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Summary!$Q$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Curvature, Depth 4</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Summary!$R$21:$W$21</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>75</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>100</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Summary!$R$22:$W$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00E+00</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0" formatCode="General">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>9.9699000205488886E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="2" formatCode="General">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4.2846792135832187E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4.3962392939158471E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5.3798233398483428E-3</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-8B56-4CCC-9AB3-3AEA3F95FCF6}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="530452656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="530450360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="530450360"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="9.0000000000000024E-2"/>
+          <c:min val="9.0000000000000033E-5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="530452656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$Y$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Curvature</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Summary!$Z$21:$AE$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Summary!$Z$23:$AE$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.3808260518431659</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9146711685260129</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5417499864445787</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9686816143843746</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9152224630117276</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.7045363062052399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-668E-4511-B811-352253F6BE14}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$Y$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Wu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Summary!$Z$21:$AE$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Summary!$Z$24:$AE$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.3973560613287812</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7361096785717534</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4741769304222525</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9414315363208323</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6397377501712782</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.6425910523103218</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-668E-4511-B811-352253F6BE14}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$Y$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sequential: PDE, Curvature</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Summary!$Z$21:$AE$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Summary!$Z$25:$AE$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.4378951426982873</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8557835976812569</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5618921435885951</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9776430849777227</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9542854868637041</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.7834730540950963</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-668E-4511-B811-352253F6BE14}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$Y$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PDE, Damping c</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Summary!$Z$21:$AE$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Summary!$Z$26:$AE$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.3949320301506249</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7305957910378766</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4626499674465911</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0989970913118676</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6597008262938742</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.2882083724750286</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-668E-4511-B811-352253F6BE14}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$Y$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Curvature, Damping c</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Summary!$Z$21:$AE$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Summary!$Z$27:$AE$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.4213340445677434</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8354585749997028</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5757113433745169</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9954026727795462</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.7500841793192619</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.8082700717607985</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-668E-4511-B811-352253F6BE14}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$Y$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>d^2(PDE)/dxdt, 1,1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Summary!$Z$21:$AE$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Summary!$Z$28:$AE$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.4791991026971067</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2028938121252586</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.895159737846579</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.624329849142486</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.483522711915426</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.9498643226702921</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-668E-4511-B811-352253F6BE14}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$Y$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>d^2(PDE)/dxdt 0.5,1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Summary!$Z$21:$AE$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Summary!$Z$29:$AE$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.4189695434398113</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0143206916093819</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7361393171230874</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5584130690521509</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.4465285015039804</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.6351215843041622</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-668E-4511-B811-352253F6BE14}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$Y$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dual Res+uxt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Summary!$Z$21:$AE$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Summary!$Z$30:$AE$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.4164705072402946</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9371465581655494</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4763609102858433</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0694949385020345</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.7965874379780438</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.9676561199558948</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-668E-4511-B811-352253F6BE14}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="534594944"/>
+        <c:axId val="534590680"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Summary!$Y$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Curvature, Depth 4</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Summary!$Z$21:$AE$21</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>75</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>100</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Summary!$Z$22:$AE$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="1">
+                        <c:v>2.2971474848641273</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4.0265464218907754</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>6.1771315844575421</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>9.152299398574554</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-668E-4511-B811-352253F6BE14}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="534594944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="534590680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="534590680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="534594944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>295276</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>28222</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>173920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>537455</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>56092</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -809,10 +6338,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O41"/>
+  <dimension ref="A1:AI55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="I31" zoomScale="108" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X56" sqref="X56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -824,47 +6353,149 @@
     <col min="6" max="6" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.5703125" style="57" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24" customWidth="1"/>
+    <col min="10" max="16" width="9.85546875" customWidth="1"/>
+    <col min="17" max="17" width="18.42578125" style="2" customWidth="1"/>
+    <col min="18" max="20" width="9.85546875" customWidth="1"/>
+    <col min="21" max="21" width="9.85546875" style="2" customWidth="1"/>
+    <col min="22" max="23" width="9.85546875" customWidth="1"/>
+    <col min="24" max="24" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="25.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="11.7109375" customWidth="1"/>
+    <col min="29" max="29" width="11.7109375" style="2" customWidth="1"/>
+    <col min="30" max="31" width="11.7109375" customWidth="1"/>
+    <col min="34" max="34" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="24.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="H1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="M1" s="27"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="2"/>
+      <c r="K1" s="112" t="s">
+        <v>92</v>
+      </c>
+      <c r="L1" s="113"/>
+      <c r="M1" s="113"/>
+      <c r="N1" s="114"/>
+      <c r="O1" s="112" t="s">
+        <v>81</v>
+      </c>
+      <c r="P1" s="113"/>
+      <c r="Q1" s="113"/>
+      <c r="R1" s="114"/>
+      <c r="S1" s="112" t="s">
+        <v>91</v>
+      </c>
+      <c r="T1" s="113"/>
+      <c r="U1" s="113"/>
+      <c r="V1" s="114"/>
+      <c r="W1" s="111" t="s">
+        <v>79</v>
+      </c>
+      <c r="X1" s="111"/>
+      <c r="Y1" s="111"/>
+      <c r="Z1" s="111"/>
+      <c r="AA1" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB1" s="65"/>
+      <c r="AC1" s="91"/>
+      <c r="AD1" s="66"/>
+      <c r="AE1" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF1" s="65"/>
+      <c r="AG1" s="91"/>
+      <c r="AH1" s="66"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="L2" s="9" t="s">
+      <c r="K2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="M2" s="28" t="s">
+      <c r="L2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="19" t="s">
+      <c r="M2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="23" t="s">
+      <c r="N2" s="63" t="s">
         <v>3</v>
       </c>
+      <c r="O2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="T2" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="U2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="V2" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="X2" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z2" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB2" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD2" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF2" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH2" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI2" s="7" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B3" s="15" t="s">
         <v>0</v>
       </c>
@@ -880,29 +6511,73 @@
       <c r="F3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="77" t="s">
         <v>48</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="77"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="77">
         <v>50</v>
       </c>
-      <c r="L3">
+      <c r="P3" s="80">
+        <v>2.2971474848641273</v>
+      </c>
+      <c r="Q3" s="81">
+        <v>3.0637534254018849E-2</v>
+      </c>
+      <c r="R3" s="82">
+        <v>9.9699000205488886E-2</v>
+      </c>
+      <c r="S3" s="83"/>
+      <c r="T3" s="84"/>
+      <c r="U3" s="90"/>
+      <c r="V3" s="83"/>
+      <c r="W3" s="77">
         <v>50</v>
       </c>
-      <c r="M3" s="27">
+      <c r="X3" s="80">
         <v>4.0265464218907754</v>
       </c>
-      <c r="N3" s="2">
+      <c r="Y3" s="81">
         <v>1.2946342918259546E-2</v>
       </c>
-      <c r="O3" s="2">
+      <c r="Z3" s="82">
         <v>4.2846792135832187E-2</v>
       </c>
+      <c r="AA3" s="78">
+        <v>50</v>
+      </c>
+      <c r="AB3" s="80">
+        <v>6.1771315844575421</v>
+      </c>
+      <c r="AC3" s="81">
+        <v>1.9994128547158037E-3</v>
+      </c>
+      <c r="AD3" s="82">
+        <v>4.3962392939158471E-3</v>
+      </c>
+      <c r="AE3" s="83">
+        <v>60</v>
+      </c>
+      <c r="AF3" s="83">
+        <v>9.152299398574554</v>
+      </c>
+      <c r="AG3" s="83">
+        <v>1.8737887100546075E-3</v>
+      </c>
+      <c r="AH3" s="83">
+        <v>5.3798233398483428E-3</v>
+      </c>
+      <c r="AI3" s="77" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B4" s="18" t="s">
         <v>4</v>
       </c>
@@ -918,29 +6593,84 @@
       <c r="F4" s="24">
         <v>8.3500000000000005E-2</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="3"/>
+      <c r="L4" s="30">
+        <v>1.3808260518431659</v>
+      </c>
+      <c r="M4" s="21">
+        <v>8.5667668351096279E-4</v>
+      </c>
+      <c r="N4" s="25">
+        <v>3.4944918866642644E-4</v>
+      </c>
+      <c r="O4" s="3">
         <v>50</v>
       </c>
-      <c r="L4">
+      <c r="P4" s="30">
+        <v>1.9146711685260129</v>
+      </c>
+      <c r="Q4" s="21">
+        <v>9.4480227414658392E-4</v>
+      </c>
+      <c r="R4" s="25">
+        <v>6.0121606870400354E-4</v>
+      </c>
+      <c r="T4" s="27">
+        <v>2.5417499864445787</v>
+      </c>
+      <c r="U4" s="2">
+        <v>6.0480093642154746E-4</v>
+      </c>
+      <c r="V4" s="75">
+        <v>2.2564967775666564E-4</v>
+      </c>
+      <c r="W4" s="3">
         <v>50</v>
       </c>
-      <c r="M4" s="27">
+      <c r="X4" s="30">
         <v>2.9686816143843746</v>
       </c>
-      <c r="N4" s="2">
+      <c r="Y4" s="50">
         <v>6.1044903107726793E-4</v>
       </c>
-      <c r="O4" s="2">
+      <c r="Z4" s="25">
         <v>3.2581148646597212E-4</v>
       </c>
+      <c r="AA4" s="13">
+        <v>50</v>
+      </c>
+      <c r="AB4" s="30">
+        <v>3.9152224630117276</v>
+      </c>
+      <c r="AC4" s="21">
+        <v>9.0771391922615059E-4</v>
+      </c>
+      <c r="AD4" s="25">
+        <v>1.9648041266645349E-3</v>
+      </c>
+      <c r="AE4">
+        <v>70</v>
+      </c>
+      <c r="AF4">
+        <v>6.7045363062052399</v>
+      </c>
+      <c r="AG4">
+        <v>5.3920651388314727E-4</v>
+      </c>
+      <c r="AH4">
+        <v>3.6258165586535845E-4</v>
+      </c>
+      <c r="AI4" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B5" s="16" t="s">
         <v>43</v>
       </c>
@@ -956,29 +6686,85 @@
       <c r="F5" s="25">
         <v>2.3699999999999999E-2</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="77"/>
+      <c r="L5" s="80">
+        <v>1.3973560613287812</v>
+      </c>
+      <c r="M5" s="81">
+        <v>3.7965908612129927E-3</v>
+      </c>
+      <c r="N5" s="82">
+        <v>1.833697568032246E-2</v>
+      </c>
+      <c r="O5" s="77">
         <v>50</v>
       </c>
-      <c r="L5">
+      <c r="P5" s="80">
+        <v>1.7361096785717534</v>
+      </c>
+      <c r="Q5" s="81">
+        <v>5.3672756771427164E-3</v>
+      </c>
+      <c r="R5" s="82">
+        <v>3.0846288992006372E-2</v>
+      </c>
+      <c r="S5" s="83"/>
+      <c r="T5" s="84">
+        <v>2.4741769304222525</v>
+      </c>
+      <c r="U5" s="90">
+        <v>7.1193674886771278E-4</v>
+      </c>
+      <c r="V5" s="85">
+        <v>2.8040200083282672E-4</v>
+      </c>
+      <c r="W5" s="77">
         <v>50</v>
       </c>
-      <c r="M5" s="27">
+      <c r="X5" s="80">
         <v>2.9414315363208323</v>
       </c>
-      <c r="N5" s="2">
+      <c r="Y5" s="81">
         <v>2.1779507279804629E-3</v>
       </c>
-      <c r="O5" s="2">
+      <c r="Z5" s="82">
         <v>9.5817494854836E-3</v>
       </c>
+      <c r="AA5" s="78">
+        <v>50</v>
+      </c>
+      <c r="AB5" s="80">
+        <v>4.6397377501712782</v>
+      </c>
+      <c r="AC5" s="81">
+        <v>6.4219025580385522E-3</v>
+      </c>
+      <c r="AD5" s="82">
+        <v>3.1909504428447616E-2</v>
+      </c>
+      <c r="AE5" s="83">
+        <v>60</v>
+      </c>
+      <c r="AF5" s="83">
+        <v>6.6425910523103218</v>
+      </c>
+      <c r="AG5" s="83">
+        <v>6.1214989102953573E-4</v>
+      </c>
+      <c r="AH5" s="83">
+        <v>7.1619961553775894E-4</v>
+      </c>
+      <c r="AI5" s="77" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B6" s="16" t="s">
         <v>53</v>
       </c>
@@ -994,11 +6780,84 @@
       <c r="F6" s="25">
         <v>2.98E-2</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="J6" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="30">
+        <v>1.4378951426982873</v>
+      </c>
+      <c r="M6" s="21">
+        <v>1.0615147888803126E-3</v>
+      </c>
+      <c r="N6" s="25">
+        <v>5.5855365242634932E-4</v>
+      </c>
+      <c r="O6" s="3">
+        <v>50</v>
+      </c>
+      <c r="P6" s="30">
+        <v>1.8557835976812569</v>
+      </c>
+      <c r="Q6" s="21">
+        <v>7.3915790560598544E-4</v>
+      </c>
+      <c r="R6" s="25">
+        <v>3.8437323687769322E-4</v>
+      </c>
+      <c r="T6" s="27">
+        <v>2.5618921435885951</v>
+      </c>
+      <c r="U6" s="2">
+        <v>6.1132980030005623E-4</v>
+      </c>
+      <c r="V6" s="75">
+        <v>2.883531750607583E-4</v>
+      </c>
+      <c r="W6" s="3">
+        <v>50</v>
+      </c>
+      <c r="X6" s="30">
+        <v>2.9776430849777227</v>
+      </c>
+      <c r="Y6" s="50">
+        <v>6.3140260721857076E-4</v>
+      </c>
+      <c r="Z6" s="25">
+        <v>2.9817532042598763E-4</v>
+      </c>
+      <c r="AA6" s="13">
+        <v>50</v>
+      </c>
+      <c r="AB6" s="30">
+        <v>3.9542854868637041</v>
+      </c>
+      <c r="AC6" s="21">
+        <v>5.0895493454157427E-4</v>
+      </c>
+      <c r="AD6" s="25">
+        <v>2.6598058858238658E-4</v>
+      </c>
+      <c r="AE6">
+        <v>50</v>
+      </c>
+      <c r="AF6">
+        <v>6.7834730540950963</v>
+      </c>
+      <c r="AG6">
+        <v>5.0099815032387217E-4</v>
+      </c>
+      <c r="AH6">
+        <v>2.5320979745982648E-4</v>
+      </c>
+      <c r="AI6" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B7" s="17" t="s">
         <v>5</v>
       </c>
@@ -1014,17 +6873,244 @@
       <c r="F7" s="52">
         <v>0</v>
       </c>
-      <c r="I7" t="s">
-        <v>75</v>
+      <c r="I7" s="77" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" s="78" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" s="77"/>
+      <c r="L7" s="80">
+        <v>1.3949320301506249</v>
+      </c>
+      <c r="M7" s="81">
+        <v>1.1778839428150025E-3</v>
+      </c>
+      <c r="N7" s="82">
+        <v>6.7391152714480547E-4</v>
+      </c>
+      <c r="O7" s="77">
+        <v>50</v>
+      </c>
+      <c r="P7" s="80">
+        <v>1.7305957910378766</v>
+      </c>
+      <c r="Q7" s="81">
+        <v>8.7540114042080686E-4</v>
+      </c>
+      <c r="R7" s="82">
+        <v>4.8082574784065533E-4</v>
+      </c>
+      <c r="S7" s="83"/>
+      <c r="T7" s="84">
+        <v>2.4626499674465911</v>
+      </c>
+      <c r="U7" s="90">
+        <v>7.2517764569016716E-4</v>
+      </c>
+      <c r="V7" s="85">
+        <v>3.5441316396503186E-4</v>
+      </c>
+      <c r="W7" s="77">
+        <v>50</v>
+      </c>
+      <c r="X7" s="80">
+        <v>3.0989970913118676</v>
+      </c>
+      <c r="Y7" s="81">
+        <v>7.1870612301729855E-4</v>
+      </c>
+      <c r="Z7" s="82">
+        <v>4.180268622669577E-4</v>
+      </c>
+      <c r="AA7" s="78">
+        <v>50</v>
+      </c>
+      <c r="AB7" s="80">
+        <v>4.6597008262938742</v>
+      </c>
+      <c r="AC7" s="81">
+        <v>5.536225367783552E-4</v>
+      </c>
+      <c r="AD7" s="82">
+        <v>2.4928907295266711E-4</v>
+      </c>
+      <c r="AE7" s="83">
+        <v>10</v>
+      </c>
+      <c r="AF7" s="84">
+        <v>6.2882083724750286</v>
+      </c>
+      <c r="AG7" s="115">
+        <v>4.7515672608850894E-4</v>
+      </c>
+      <c r="AH7" s="85">
+        <v>2.1236685518637752E-4</v>
+      </c>
+      <c r="AI7" s="77" t="s">
+        <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="I8" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J8" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="30">
+        <v>1.4213340445677434</v>
+      </c>
+      <c r="M8" s="21">
+        <v>1.0731943763652566E-3</v>
+      </c>
+      <c r="N8" s="25">
+        <v>5.7262251212841179E-4</v>
+      </c>
+      <c r="O8" s="3">
+        <v>50</v>
+      </c>
+      <c r="P8" s="30">
+        <v>1.8354585749997028</v>
+      </c>
+      <c r="Q8" s="21">
+        <v>8.7625435231766596E-4</v>
+      </c>
+      <c r="R8" s="25">
+        <v>4.0211255650059684E-4</v>
+      </c>
+      <c r="T8" s="27">
+        <v>2.5757113433745169</v>
+      </c>
+      <c r="U8" s="2">
+        <v>7.7163229061607283E-4</v>
+      </c>
+      <c r="V8" s="75">
+        <v>3.2171310306231617E-4</v>
+      </c>
+      <c r="W8" s="33">
+        <v>50</v>
+      </c>
+      <c r="X8" s="30">
+        <v>2.9954026727795462</v>
+      </c>
+      <c r="Y8" s="50">
+        <v>6.559738775014784E-4</v>
+      </c>
+      <c r="Z8" s="25">
+        <v>2.5934649991930428E-4</v>
+      </c>
+      <c r="AA8" s="13">
+        <v>50</v>
+      </c>
+      <c r="AB8" s="30">
+        <v>4.7500841793192619</v>
+      </c>
+      <c r="AC8" s="21">
+        <v>5.4824290681767629E-4</v>
+      </c>
+      <c r="AD8" s="25">
+        <v>2.5145479758371069E-4</v>
+      </c>
+      <c r="AE8">
+        <v>50</v>
+      </c>
+      <c r="AF8">
+        <v>6.8082700717607985</v>
+      </c>
+      <c r="AG8">
+        <v>4.4609210393863036E-4</v>
+      </c>
+      <c r="AH8">
+        <v>2.048560416308142E-4</v>
+      </c>
+      <c r="AI8" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="1"/>
+      <c r="I9" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" s="83" t="s">
+        <v>95</v>
+      </c>
+      <c r="K9" s="77"/>
+      <c r="L9" s="80">
+        <v>1.4791991026971067</v>
+      </c>
+      <c r="M9" s="81">
+        <v>1.1887469954588049E-3</v>
+      </c>
+      <c r="N9" s="82">
+        <v>4.1010148933989088E-4</v>
+      </c>
+      <c r="O9" s="77"/>
+      <c r="P9" s="80">
+        <v>2.2028938121252586</v>
+      </c>
+      <c r="Q9" s="81">
+        <v>9.3585580976518067E-4</v>
+      </c>
+      <c r="R9" s="87">
+        <v>2.924340164122863E-4</v>
+      </c>
+      <c r="S9" s="78"/>
+      <c r="T9" s="80">
+        <v>2.895159737846579</v>
+      </c>
+      <c r="U9" s="81">
+        <v>9.8608826481326852E-4</v>
+      </c>
+      <c r="V9" s="86">
+        <v>3.5254146032327017E-4</v>
+      </c>
+      <c r="W9" s="77">
+        <v>50</v>
+      </c>
+      <c r="X9" s="80">
+        <v>3.624329849142486</v>
+      </c>
+      <c r="Y9" s="81">
+        <v>7.1214832318866226E-4</v>
+      </c>
+      <c r="Z9" s="87">
+        <v>2.0708757795324687E-4</v>
+      </c>
+      <c r="AA9" s="78">
+        <v>50</v>
+      </c>
+      <c r="AB9" s="80">
+        <v>5.483522711915426</v>
+      </c>
+      <c r="AC9" s="81">
+        <v>8.5970391777880799E-4</v>
+      </c>
+      <c r="AD9" s="82">
+        <v>1.4495988867764629E-3</v>
+      </c>
+      <c r="AE9" s="83">
+        <v>50</v>
+      </c>
+      <c r="AF9" s="80">
+        <v>8.9498643226702921</v>
+      </c>
+      <c r="AG9" s="81">
+        <v>5.4393194117414089E-4</v>
+      </c>
+      <c r="AH9" s="81">
+        <v>1.3070070314676611E-4</v>
+      </c>
+      <c r="AI9" s="77" t="s">
+        <v>93</v>
+      </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B10" s="53" t="s">
         <v>0</v>
       </c>
@@ -1040,8 +7126,78 @@
       <c r="F10" s="47" t="s">
         <v>3</v>
       </c>
+      <c r="I10" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="J10" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="30">
+        <v>1.4189695434398113</v>
+      </c>
+      <c r="M10" s="21">
+        <v>6.5585048283764132E-4</v>
+      </c>
+      <c r="N10" s="25">
+        <v>2.4311694506121251E-4</v>
+      </c>
+      <c r="O10" s="3"/>
+      <c r="P10" s="30">
+        <v>2.0143206916093819</v>
+      </c>
+      <c r="Q10" s="21">
+        <v>5.8027702483174281E-4</v>
+      </c>
+      <c r="R10" s="73">
+        <v>1.7983474244238117E-4</v>
+      </c>
+      <c r="S10" s="13"/>
+      <c r="T10" s="30">
+        <v>2.7361393171230874</v>
+      </c>
+      <c r="U10" s="21">
+        <v>4.6774181848728709E-4</v>
+      </c>
+      <c r="V10" s="74">
+        <v>1.5851590509252848E-4</v>
+      </c>
+      <c r="W10" s="3"/>
+      <c r="X10" s="30">
+        <v>3.5584130690521509</v>
+      </c>
+      <c r="Y10" s="21">
+        <v>4.5463796640383606E-4</v>
+      </c>
+      <c r="Z10" s="73">
+        <v>1.8397929008717449E-4</v>
+      </c>
+      <c r="AB10">
+        <v>5.4465285015039804</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>3.5238005082323935E-4</v>
+      </c>
+      <c r="AD10">
+        <v>9.3091584430161214E-5</v>
+      </c>
+      <c r="AE10">
+        <v>50</v>
+      </c>
+      <c r="AF10" s="27">
+        <v>7.6351215843041622</v>
+      </c>
+      <c r="AG10" s="98">
+        <v>3.1458273583690084E-4</v>
+      </c>
+      <c r="AH10" s="75">
+        <v>1.0966262329428924E-4</v>
+      </c>
+      <c r="AI10" s="33" t="s">
+        <v>94</v>
+      </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B11" s="18" t="s">
         <v>4</v>
       </c>
@@ -1057,8 +7213,81 @@
       <c r="F11" s="24">
         <v>0.11072520033437649</v>
       </c>
+      <c r="I11" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="J11" s="83" t="s">
+        <v>100</v>
+      </c>
+      <c r="K11" s="77">
+        <v>50</v>
+      </c>
+      <c r="L11" s="80">
+        <v>1.4164705072402946</v>
+      </c>
+      <c r="M11" s="81">
+        <v>8.9725304090880345E-4</v>
+      </c>
+      <c r="N11" s="82">
+        <v>3.4563322242221555E-4</v>
+      </c>
+      <c r="O11" s="77"/>
+      <c r="P11" s="80">
+        <v>1.9371465581655494</v>
+      </c>
+      <c r="Q11" s="81">
+        <v>8.3917350825916687E-4</v>
+      </c>
+      <c r="R11" s="79">
+        <v>3.5328863594137025E-4</v>
+      </c>
+      <c r="S11" s="78"/>
+      <c r="T11" s="80">
+        <v>2.4763609102858433</v>
+      </c>
+      <c r="U11" s="81">
+        <v>6.3159224594648068E-4</v>
+      </c>
+      <c r="V11" s="81">
+        <v>2.0991569462949945E-4</v>
+      </c>
+      <c r="W11" s="77"/>
+      <c r="X11" s="80">
+        <v>3.0694949385020345</v>
+      </c>
+      <c r="Y11" s="81">
+        <v>5.4985433734484586E-4</v>
+      </c>
+      <c r="Z11" s="79">
+        <v>1.8594935223250245E-4</v>
+      </c>
+      <c r="AA11" s="83"/>
+      <c r="AB11" s="83">
+        <v>4.7965874379780438</v>
+      </c>
+      <c r="AC11" s="90">
+        <v>4.9661231459146302E-4</v>
+      </c>
+      <c r="AD11" s="83">
+        <v>1.8310649230282391E-4</v>
+      </c>
+      <c r="AE11" s="83">
+        <v>50</v>
+      </c>
+      <c r="AF11" s="83">
+        <v>6.9676561199558948</v>
+      </c>
+      <c r="AG11" s="83">
+        <v>4.8362649807386272E-4</v>
+      </c>
+      <c r="AH11" s="83">
+        <v>2.2607741826055321E-4</v>
+      </c>
+      <c r="AI11" s="3" t="s">
+        <v>99</v>
+      </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B12" s="16" t="s">
         <v>43</v>
       </c>
@@ -1074,8 +7303,25 @@
       <c r="F12" s="25">
         <v>4.9033556963699231E-2</v>
       </c>
+      <c r="I12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="30"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="30"/>
+      <c r="Y12" s="21"/>
+      <c r="Z12" s="4"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B13" s="16" t="s">
         <v>44</v>
       </c>
@@ -1091,8 +7337,20 @@
       <c r="F13" s="25">
         <v>3.4755864065810715E-2</v>
       </c>
+      <c r="K13" s="30"/>
+      <c r="L13" s="21"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="21"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="30"/>
+      <c r="T13" s="21"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="30"/>
+      <c r="X13" s="21"/>
+      <c r="Z13" s="4"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1100,23 +7358,35 @@
         <v>22</v>
       </c>
       <c r="C14" s="13">
-        <f>C38+C39</f>
+        <f>C39+C40</f>
         <v>60</v>
       </c>
       <c r="D14" s="30">
-        <f>((D38*1)+(D39*5))/6</f>
+        <f>((D39*1)+(D40*5))/6</f>
         <v>6.6425910523103218</v>
       </c>
-      <c r="E14" s="21">
-        <f>((E38*1)+(E39*5))/6</f>
+      <c r="E14" s="50">
+        <f>((E39*1)+(E40*5))/6</f>
         <v>6.1214989102953573E-4</v>
       </c>
       <c r="F14" s="25">
-        <f>((F38*1)+(F39*5))/6</f>
+        <f>((F39*1)+(F40*5))/6</f>
         <v>7.1619961553775894E-4</v>
       </c>
+      <c r="K14" s="30"/>
+      <c r="L14" s="21"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="21"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="30"/>
+      <c r="T14" s="21"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="30"/>
+      <c r="X14" s="21"/>
+      <c r="Z14" s="4"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="56" t="s">
         <v>21</v>
       </c>
@@ -1135,8 +7405,29 @@
       <c r="F15" s="26">
         <v>2.4531836988007179E-4</v>
       </c>
+      <c r="I15" s="3"/>
+      <c r="V15" s="2"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="I16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="30"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="21"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="30"/>
+      <c r="Y16" s="21"/>
+      <c r="Z16" s="4"/>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="7" t="s">
         <v>0</v>
@@ -1153,8 +7444,25 @@
       <c r="F17" s="23" t="s">
         <v>3</v>
       </c>
+      <c r="I17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="30"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="30"/>
+      <c r="Y17" s="21"/>
+      <c r="Z17" s="4"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="3" t="s">
         <v>58</v>
@@ -1172,7 +7480,7 @@
         <v>4.2764451039324939E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="3" t="s">
         <v>67</v>
@@ -1189,8 +7497,12 @@
       <c r="F19" s="25">
         <v>2.1633824782506494E-4</v>
       </c>
+      <c r="L19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="T19" s="27"/>
+      <c r="X19" s="27"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="3" t="s">
         <v>57</v>
@@ -1207,8 +7519,20 @@
       <c r="F20" s="25">
         <v>6.1133261759914058E-4</v>
       </c>
+      <c r="I20" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>102</v>
+      </c>
+      <c r="U20"/>
+      <c r="X20" s="27"/>
+      <c r="Y20" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC20"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
       <c r="B21" s="3" t="s">
         <v>56</v>
@@ -1225,8 +7549,71 @@
       <c r="F21" s="25">
         <v>3.6258165586535845E-4</v>
       </c>
+      <c r="I21" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="J21" s="68">
+        <v>20</v>
+      </c>
+      <c r="K21" s="61">
+        <v>30</v>
+      </c>
+      <c r="L21" s="76">
+        <v>40</v>
+      </c>
+      <c r="M21" s="68">
+        <v>50</v>
+      </c>
+      <c r="N21" s="68">
+        <v>75</v>
+      </c>
+      <c r="O21" s="68">
+        <v>100</v>
+      </c>
+      <c r="Q21" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="R21" s="68">
+        <v>20</v>
+      </c>
+      <c r="S21" s="61">
+        <v>30</v>
+      </c>
+      <c r="T21" s="76">
+        <v>40</v>
+      </c>
+      <c r="U21" s="68">
+        <v>50</v>
+      </c>
+      <c r="V21" s="68">
+        <v>75</v>
+      </c>
+      <c r="W21" s="68">
+        <v>100</v>
+      </c>
+      <c r="Y21" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z21" s="68">
+        <v>20</v>
+      </c>
+      <c r="AA21" s="61">
+        <v>30</v>
+      </c>
+      <c r="AB21" s="76">
+        <v>40</v>
+      </c>
+      <c r="AC21" s="68">
+        <v>50</v>
+      </c>
+      <c r="AD21" s="68">
+        <v>75</v>
+      </c>
+      <c r="AE21" s="68">
+        <v>100</v>
+      </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" s="3" t="s">
         <v>61</v>
@@ -1243,8 +7630,73 @@
       <c r="F22" s="25">
         <v>5.3798233398483428E-3</v>
       </c>
+      <c r="I22" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="J22" s="33"/>
+      <c r="K22" s="50">
+        <v>3.0637534254018849E-2</v>
+      </c>
+      <c r="L22" s="32"/>
+      <c r="M22" s="50">
+        <v>1.2946342918259546E-2</v>
+      </c>
+      <c r="N22" s="21">
+        <v>1.9994128547158037E-3</v>
+      </c>
+      <c r="O22" s="25">
+        <v>1.8737887100546075E-3</v>
+      </c>
+      <c r="Q22" s="108" t="s">
+        <v>85</v>
+      </c>
+      <c r="R22" s="33">
+        <f t="shared" ref="R22:R30" si="0">N3</f>
+        <v>0</v>
+      </c>
+      <c r="S22" s="50">
+        <f t="shared" ref="S22:S30" si="1">R3</f>
+        <v>9.9699000205488886E-2</v>
+      </c>
+      <c r="T22" s="32">
+        <f t="shared" ref="T22:T30" si="2">V3</f>
+        <v>0</v>
+      </c>
+      <c r="U22" s="50">
+        <f t="shared" ref="U22:U30" si="3">Z3</f>
+        <v>4.2846792135832187E-2</v>
+      </c>
+      <c r="V22" s="50">
+        <f t="shared" ref="V22:V30" si="4">AD3</f>
+        <v>4.3962392939158471E-3</v>
+      </c>
+      <c r="W22" s="70">
+        <f t="shared" ref="W22:W30" si="5">AH3</f>
+        <v>5.3798233398483428E-3</v>
+      </c>
+      <c r="Y22" s="108" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z22" s="105"/>
+      <c r="AA22" s="109">
+        <f>P3</f>
+        <v>2.2971474848641273</v>
+      </c>
+      <c r="AB22" s="109"/>
+      <c r="AC22" s="109">
+        <f>X3</f>
+        <v>4.0265464218907754</v>
+      </c>
+      <c r="AD22" s="109">
+        <f>AB3</f>
+        <v>6.1771315844575421</v>
+      </c>
+      <c r="AE22" s="110">
+        <f>AF3</f>
+        <v>9.152299398574554</v>
+      </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
       <c r="B23" s="5" t="s">
         <v>68</v>
@@ -1261,8 +7713,83 @@
       <c r="F23" s="26">
         <v>1.6561053879823057E-4</v>
       </c>
+      <c r="I23" s="103" t="s">
+        <v>36</v>
+      </c>
+      <c r="J23" s="96">
+        <v>8.5667668351096279E-4</v>
+      </c>
+      <c r="K23" s="55">
+        <v>9.4480227414658392E-4</v>
+      </c>
+      <c r="L23" s="97">
+        <v>6.0480093642154746E-4</v>
+      </c>
+      <c r="M23" s="55">
+        <v>6.1044903107726793E-4</v>
+      </c>
+      <c r="N23" s="72">
+        <v>9.0771391922615059E-4</v>
+      </c>
+      <c r="O23" s="24">
+        <v>5.3920651388314727E-4</v>
+      </c>
+      <c r="Q23" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="R23" s="96">
+        <f t="shared" si="0"/>
+        <v>3.4944918866642644E-4</v>
+      </c>
+      <c r="S23" s="55">
+        <f t="shared" si="1"/>
+        <v>6.0121606870400354E-4</v>
+      </c>
+      <c r="T23" s="97">
+        <f t="shared" si="2"/>
+        <v>2.2564967775666564E-4</v>
+      </c>
+      <c r="U23" s="55">
+        <f t="shared" si="3"/>
+        <v>3.2581148646597212E-4</v>
+      </c>
+      <c r="V23" s="55">
+        <f t="shared" si="4"/>
+        <v>1.9648041266645349E-3</v>
+      </c>
+      <c r="W23" s="100">
+        <f t="shared" si="5"/>
+        <v>3.6258165586535845E-4</v>
+      </c>
+      <c r="Y23" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z23" s="105">
+        <f t="shared" ref="Z23:Z29" si="6">L4</f>
+        <v>1.3808260518431659</v>
+      </c>
+      <c r="AA23" s="109">
+        <f t="shared" ref="AA23:AA29" si="7">P4</f>
+        <v>1.9146711685260129</v>
+      </c>
+      <c r="AB23" s="109">
+        <f t="shared" ref="AB23:AB29" si="8">T4</f>
+        <v>2.5417499864445787</v>
+      </c>
+      <c r="AC23" s="109">
+        <f t="shared" ref="AC23:AC29" si="9">X4</f>
+        <v>2.9686816143843746</v>
+      </c>
+      <c r="AD23" s="109">
+        <f t="shared" ref="AD23:AD29" si="10">AB4</f>
+        <v>3.9152224630117276</v>
+      </c>
+      <c r="AE23" s="110">
+        <f t="shared" ref="AE23:AE30" si="11">AF4</f>
+        <v>6.7045363062052399</v>
+      </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>69</v>
       </c>
@@ -1281,8 +7808,83 @@
       <c r="F24" s="24">
         <v>2.048560416308142E-4</v>
       </c>
+      <c r="I24" s="88" t="s">
+        <v>86</v>
+      </c>
+      <c r="J24" s="93">
+        <v>3.7965908612129927E-3</v>
+      </c>
+      <c r="K24" s="50">
+        <v>5.3672756771427164E-3</v>
+      </c>
+      <c r="L24" s="99">
+        <v>7.1193674886771278E-4</v>
+      </c>
+      <c r="M24" s="69">
+        <v>2.1779507279804629E-3</v>
+      </c>
+      <c r="N24" s="69">
+        <v>6.4219025580385522E-3</v>
+      </c>
+      <c r="O24" s="70">
+        <v>6.1214989102953573E-4</v>
+      </c>
+      <c r="Q24" s="77" t="s">
+        <v>86</v>
+      </c>
+      <c r="R24" s="93">
+        <f t="shared" si="0"/>
+        <v>1.833697568032246E-2</v>
+      </c>
+      <c r="S24" s="50">
+        <f t="shared" si="1"/>
+        <v>3.0846288992006372E-2</v>
+      </c>
+      <c r="T24" s="92">
+        <f t="shared" si="2"/>
+        <v>2.8040200083282672E-4</v>
+      </c>
+      <c r="U24" s="50">
+        <f t="shared" si="3"/>
+        <v>9.5817494854836E-3</v>
+      </c>
+      <c r="V24" s="50">
+        <f t="shared" si="4"/>
+        <v>3.1909504428447616E-2</v>
+      </c>
+      <c r="W24" s="70">
+        <f t="shared" si="5"/>
+        <v>7.1619961553775894E-4</v>
+      </c>
+      <c r="Y24" s="77" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z24" s="105">
+        <f t="shared" si="6"/>
+        <v>1.3973560613287812</v>
+      </c>
+      <c r="AA24" s="109">
+        <f t="shared" si="7"/>
+        <v>1.7361096785717534</v>
+      </c>
+      <c r="AB24" s="109">
+        <f t="shared" si="8"/>
+        <v>2.4741769304222525</v>
+      </c>
+      <c r="AC24" s="109">
+        <f t="shared" si="9"/>
+        <v>2.9414315363208323</v>
+      </c>
+      <c r="AD24" s="109">
+        <f t="shared" si="10"/>
+        <v>4.6397377501712782</v>
+      </c>
+      <c r="AE24" s="110">
+        <f t="shared" si="11"/>
+        <v>6.6425910523103218</v>
+      </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>69</v>
       </c>
@@ -1290,22 +7892,94 @@
         <v>70</v>
       </c>
       <c r="C25" s="13">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="D25" s="30">
-        <v>6.9087099965082119</v>
+        <v>6.2882083724750286</v>
       </c>
       <c r="E25" s="50">
-        <v>4.8643891877348411E-4</v>
+        <v>4.7515672608850894E-4</v>
       </c>
       <c r="F25" s="25">
-        <v>1.9147480743070145E-4</v>
-      </c>
-      <c r="K25" s="27"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
+        <v>2.1236685518637752E-4</v>
+      </c>
+      <c r="I25" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="J25" s="93">
+        <v>1.0615147888803126E-3</v>
+      </c>
+      <c r="K25" s="50">
+        <v>7.3915790560598544E-4</v>
+      </c>
+      <c r="L25" s="92">
+        <v>6.1132980030005623E-4</v>
+      </c>
+      <c r="M25" s="50">
+        <v>6.3140260721857076E-4</v>
+      </c>
+      <c r="N25" s="21">
+        <v>5.0895493454157427E-4</v>
+      </c>
+      <c r="O25" s="25">
+        <v>5.0099815032387217E-4</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="R25" s="93">
+        <f t="shared" si="0"/>
+        <v>5.5855365242634932E-4</v>
+      </c>
+      <c r="S25" s="50">
+        <f t="shared" si="1"/>
+        <v>3.8437323687769322E-4</v>
+      </c>
+      <c r="T25" s="92">
+        <f t="shared" si="2"/>
+        <v>2.883531750607583E-4</v>
+      </c>
+      <c r="U25" s="50">
+        <f t="shared" si="3"/>
+        <v>2.9817532042598763E-4</v>
+      </c>
+      <c r="V25" s="50">
+        <f t="shared" si="4"/>
+        <v>2.6598058858238658E-4</v>
+      </c>
+      <c r="W25" s="70">
+        <f t="shared" si="5"/>
+        <v>2.5320979745982648E-4</v>
+      </c>
+      <c r="Y25" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z25" s="105">
+        <f t="shared" si="6"/>
+        <v>1.4378951426982873</v>
+      </c>
+      <c r="AA25" s="109">
+        <f t="shared" si="7"/>
+        <v>1.8557835976812569</v>
+      </c>
+      <c r="AB25" s="109">
+        <f t="shared" si="8"/>
+        <v>2.5618921435885951</v>
+      </c>
+      <c r="AC25" s="109">
+        <f t="shared" si="9"/>
+        <v>2.9776430849777227</v>
+      </c>
+      <c r="AD25" s="109">
+        <f t="shared" si="10"/>
+        <v>3.9542854868637041</v>
+      </c>
+      <c r="AE25" s="110">
+        <f t="shared" si="11"/>
+        <v>6.7834730540950963</v>
+      </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>69</v>
       </c>
@@ -1324,11 +7998,81 @@
       <c r="F26" s="25">
         <v>1.6975951420033131E-4</v>
       </c>
-      <c r="K26" s="27"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
+      <c r="I26" s="88" t="s">
+        <v>88</v>
+      </c>
+      <c r="J26" s="93">
+        <v>1.1778839428150025E-3</v>
+      </c>
+      <c r="K26" s="50">
+        <v>8.7540114042080686E-4</v>
+      </c>
+      <c r="L26" s="92">
+        <v>7.2517764569016716E-4</v>
+      </c>
+      <c r="M26" s="50">
+        <v>7.1870612301729855E-4</v>
+      </c>
+      <c r="N26" s="21">
+        <v>5.536225367783552E-4</v>
+      </c>
+      <c r="O26" s="71">
+        <v>4.7515672608850894E-4</v>
+      </c>
+      <c r="Q26" s="77" t="s">
+        <v>88</v>
+      </c>
+      <c r="R26" s="93">
+        <f t="shared" si="0"/>
+        <v>6.7391152714480547E-4</v>
+      </c>
+      <c r="S26" s="50">
+        <f t="shared" si="1"/>
+        <v>4.8082574784065533E-4</v>
+      </c>
+      <c r="T26" s="92">
+        <f t="shared" si="2"/>
+        <v>3.5441316396503186E-4</v>
+      </c>
+      <c r="U26" s="50">
+        <f t="shared" si="3"/>
+        <v>4.180268622669577E-4</v>
+      </c>
+      <c r="V26" s="50">
+        <f t="shared" si="4"/>
+        <v>2.4928907295266711E-4</v>
+      </c>
+      <c r="W26" s="70">
+        <v>2.1236685518637752E-4</v>
+      </c>
+      <c r="Y26" s="77" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z26" s="105">
+        <f t="shared" si="6"/>
+        <v>1.3949320301506249</v>
+      </c>
+      <c r="AA26" s="109">
+        <f t="shared" si="7"/>
+        <v>1.7305957910378766</v>
+      </c>
+      <c r="AB26" s="109">
+        <f t="shared" si="8"/>
+        <v>2.4626499674465911</v>
+      </c>
+      <c r="AC26" s="109">
+        <f t="shared" si="9"/>
+        <v>3.0989970913118676</v>
+      </c>
+      <c r="AD26" s="109">
+        <f t="shared" si="10"/>
+        <v>4.6597008262938742</v>
+      </c>
+      <c r="AE26" s="84">
+        <v>6.2882083724750286</v>
+      </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>15</v>
       </c>
@@ -1347,11 +8091,83 @@
       <c r="F27" s="24">
         <v>1.5400170959997073E-4</v>
       </c>
-      <c r="K27" s="27"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
+      <c r="I27" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="J27" s="93">
+        <v>1.0731943763652566E-3</v>
+      </c>
+      <c r="K27" s="50">
+        <v>8.7625435231766596E-4</v>
+      </c>
+      <c r="L27" s="92">
+        <v>7.7163229061607283E-4</v>
+      </c>
+      <c r="M27" s="50">
+        <v>6.559738775014784E-4</v>
+      </c>
+      <c r="N27" s="21">
+        <v>5.4824290681767629E-4</v>
+      </c>
+      <c r="O27" s="25">
+        <v>4.4609210393863036E-4</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="R27" s="93">
+        <f t="shared" si="0"/>
+        <v>5.7262251212841179E-4</v>
+      </c>
+      <c r="S27" s="50">
+        <f t="shared" si="1"/>
+        <v>4.0211255650059684E-4</v>
+      </c>
+      <c r="T27" s="92">
+        <f t="shared" si="2"/>
+        <v>3.2171310306231617E-4</v>
+      </c>
+      <c r="U27" s="50">
+        <f t="shared" si="3"/>
+        <v>2.5934649991930428E-4</v>
+      </c>
+      <c r="V27" s="50">
+        <f t="shared" si="4"/>
+        <v>2.5145479758371069E-4</v>
+      </c>
+      <c r="W27" s="70">
+        <f t="shared" si="5"/>
+        <v>2.048560416308142E-4</v>
+      </c>
+      <c r="Y27" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z27" s="105">
+        <f t="shared" si="6"/>
+        <v>1.4213340445677434</v>
+      </c>
+      <c r="AA27" s="109">
+        <f t="shared" si="7"/>
+        <v>1.8354585749997028</v>
+      </c>
+      <c r="AB27" s="109">
+        <f t="shared" si="8"/>
+        <v>2.5757113433745169</v>
+      </c>
+      <c r="AC27" s="109">
+        <f t="shared" si="9"/>
+        <v>2.9954026727795462</v>
+      </c>
+      <c r="AD27" s="109">
+        <f t="shared" si="10"/>
+        <v>4.7500841793192619</v>
+      </c>
+      <c r="AE27" s="110">
+        <f t="shared" si="11"/>
+        <v>6.8082700717607985</v>
+      </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>15</v>
       </c>
@@ -1370,11 +8186,83 @@
       <c r="F28" s="26">
         <v>1.9083453268669933E-4</v>
       </c>
-      <c r="K28" s="27"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
+      <c r="I28" s="89" t="s">
+        <v>97</v>
+      </c>
+      <c r="J28" s="93">
+        <v>1.1887469954588049E-3</v>
+      </c>
+      <c r="K28" s="50">
+        <v>9.3585580976518067E-4</v>
+      </c>
+      <c r="L28" s="81">
+        <v>9.8608826481326852E-4</v>
+      </c>
+      <c r="M28" s="69">
+        <v>7.1214832318866226E-4</v>
+      </c>
+      <c r="N28" s="69">
+        <v>8.5970391777880799E-4</v>
+      </c>
+      <c r="O28" s="25">
+        <v>5.4393194117414089E-4</v>
+      </c>
+      <c r="Q28" s="77" t="s">
+        <v>97</v>
+      </c>
+      <c r="R28" s="93">
+        <f t="shared" si="0"/>
+        <v>4.1010148933989088E-4</v>
+      </c>
+      <c r="S28" s="104">
+        <f t="shared" si="1"/>
+        <v>2.924340164122863E-4</v>
+      </c>
+      <c r="T28" s="104">
+        <f t="shared" si="2"/>
+        <v>3.5254146032327017E-4</v>
+      </c>
+      <c r="U28" s="104">
+        <f t="shared" si="3"/>
+        <v>2.0708757795324687E-4</v>
+      </c>
+      <c r="V28" s="50">
+        <f t="shared" si="4"/>
+        <v>1.4495988867764629E-3</v>
+      </c>
+      <c r="W28" s="70">
+        <f t="shared" si="5"/>
+        <v>1.3070070314676611E-4</v>
+      </c>
+      <c r="Y28" s="102" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z28" s="105">
+        <f t="shared" si="6"/>
+        <v>1.4791991026971067</v>
+      </c>
+      <c r="AA28" s="109">
+        <f t="shared" si="7"/>
+        <v>2.2028938121252586</v>
+      </c>
+      <c r="AB28" s="109">
+        <f t="shared" si="8"/>
+        <v>2.895159737846579</v>
+      </c>
+      <c r="AC28" s="109">
+        <f t="shared" si="9"/>
+        <v>3.624329849142486</v>
+      </c>
+      <c r="AD28" s="109">
+        <f t="shared" si="10"/>
+        <v>5.483522711915426</v>
+      </c>
+      <c r="AE28" s="110">
+        <f t="shared" si="11"/>
+        <v>8.9498643226702921</v>
+      </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>26</v>
       </c>
@@ -1382,22 +8270,95 @@
         <v>27</v>
       </c>
       <c r="C29" s="13">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="D29" s="30">
-        <v>7.2979265877206974</v>
+        <v>7.4633286371787291</v>
       </c>
       <c r="E29" s="21">
-        <v>5.898734630392623E-4</v>
+        <v>6.2299836634149353E-4</v>
       </c>
       <c r="F29" s="25">
-        <v>1.7706268644262122E-4</v>
-      </c>
-      <c r="K29" s="27"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
+        <v>2.0082476696862988E-4</v>
+      </c>
+      <c r="I29" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="J29" s="94">
+        <v>6.5585048283764132E-4</v>
+      </c>
+      <c r="K29" s="51">
+        <v>5.8027702483174281E-4</v>
+      </c>
+      <c r="L29" s="95">
+        <v>4.6774181848728709E-4</v>
+      </c>
+      <c r="M29" s="21">
+        <v>4.5463796640383606E-4</v>
+      </c>
+      <c r="N29" s="2">
+        <v>3.5238005082323935E-4</v>
+      </c>
+      <c r="O29" s="26">
+        <v>3.1458273583690084E-4</v>
+      </c>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="R29" s="93">
+        <f t="shared" si="0"/>
+        <v>2.4311694506121251E-4</v>
+      </c>
+      <c r="S29" s="104">
+        <f t="shared" si="1"/>
+        <v>1.7983474244238117E-4</v>
+      </c>
+      <c r="T29" s="92">
+        <f t="shared" si="2"/>
+        <v>1.5851590509252848E-4</v>
+      </c>
+      <c r="U29" s="104">
+        <f t="shared" si="3"/>
+        <v>1.8397929008717449E-4</v>
+      </c>
+      <c r="V29" s="50">
+        <f t="shared" si="4"/>
+        <v>9.3091584430161214E-5</v>
+      </c>
+      <c r="W29" s="107">
+        <f t="shared" si="5"/>
+        <v>1.0966262329428924E-4</v>
+      </c>
+      <c r="Y29" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z29" s="105">
+        <f t="shared" si="6"/>
+        <v>1.4189695434398113</v>
+      </c>
+      <c r="AA29" s="109">
+        <f t="shared" si="7"/>
+        <v>2.0143206916093819</v>
+      </c>
+      <c r="AB29" s="109">
+        <f t="shared" si="8"/>
+        <v>2.7361393171230874</v>
+      </c>
+      <c r="AC29" s="109">
+        <f t="shared" si="9"/>
+        <v>3.5584130690521509</v>
+      </c>
+      <c r="AD29" s="109">
+        <f t="shared" si="10"/>
+        <v>5.4465285015039804</v>
+      </c>
+      <c r="AE29" s="110">
+        <f t="shared" si="11"/>
+        <v>7.6351215843041622</v>
+      </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>26</v>
       </c>
@@ -1416,11 +8377,90 @@
       <c r="F30" s="25">
         <v>1.5978325040835362E-4</v>
       </c>
-      <c r="K30" s="27"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
+      <c r="I30" s="106" t="s">
+        <v>103</v>
+      </c>
+      <c r="J30" s="2">
+        <f>M11</f>
+        <v>8.9725304090880345E-4</v>
+      </c>
+      <c r="K30" s="2">
+        <f>Q11</f>
+        <v>8.3917350825916687E-4</v>
+      </c>
+      <c r="L30" s="2">
+        <f>U11</f>
+        <v>6.3159224594648068E-4</v>
+      </c>
+      <c r="M30" s="2">
+        <f>Y11</f>
+        <v>5.4985433734484586E-4</v>
+      </c>
+      <c r="N30" s="2">
+        <f>AC11</f>
+        <v>4.9661231459146302E-4</v>
+      </c>
+      <c r="O30" s="2">
+        <f>AG11</f>
+        <v>4.8362649807386272E-4</v>
+      </c>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="106" t="s">
+        <v>103</v>
+      </c>
+      <c r="R30" s="106">
+        <f t="shared" si="0"/>
+        <v>3.4563322242221555E-4</v>
+      </c>
+      <c r="S30" s="51">
+        <f t="shared" si="1"/>
+        <v>3.5328863594137025E-4</v>
+      </c>
+      <c r="T30" s="22">
+        <f t="shared" si="2"/>
+        <v>2.0991569462949945E-4</v>
+      </c>
+      <c r="U30" s="22">
+        <f t="shared" si="3"/>
+        <v>1.8594935223250245E-4</v>
+      </c>
+      <c r="V30" s="51">
+        <f t="shared" si="4"/>
+        <v>1.8310649230282391E-4</v>
+      </c>
+      <c r="W30" s="101">
+        <f t="shared" si="5"/>
+        <v>2.2607741826055321E-4</v>
+      </c>
+      <c r="Y30" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z30" s="105">
+        <f t="shared" ref="Z30" si="12">L11</f>
+        <v>1.4164705072402946</v>
+      </c>
+      <c r="AA30" s="109">
+        <f t="shared" ref="AA30" si="13">P11</f>
+        <v>1.9371465581655494</v>
+      </c>
+      <c r="AB30" s="109">
+        <f t="shared" ref="AB30" si="14">T11</f>
+        <v>2.4763609102858433</v>
+      </c>
+      <c r="AC30" s="109">
+        <f t="shared" ref="AC30" si="15">X11</f>
+        <v>3.0694949385020345</v>
+      </c>
+      <c r="AD30" s="109">
+        <f t="shared" ref="AD30" si="16">AB11</f>
+        <v>4.7965874379780438</v>
+      </c>
+      <c r="AE30" s="110">
+        <f t="shared" si="11"/>
+        <v>6.9676561199558948</v>
+      </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>26</v>
       </c>
@@ -1439,132 +8479,249 @@
       <c r="F31" s="26">
         <v>1.3070070314676611E-4</v>
       </c>
-      <c r="K31" s="27"/>
+      <c r="K31" s="2"/>
       <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B32" s="33" t="s">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A32" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="48">
+        <v>50</v>
+      </c>
+      <c r="D32" s="39">
+        <v>6.7834730540950963</v>
+      </c>
+      <c r="E32" s="40">
+        <v>5.0099815032387217E-4</v>
+      </c>
+      <c r="F32" s="41">
+        <v>2.5320979745982648E-4</v>
+      </c>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A33" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="C32" s="32">
+      <c r="C33" s="38">
         <v>50</v>
       </c>
-      <c r="D32" s="27">
+      <c r="D33" s="39">
         <v>6.9676561199558948</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E33" s="40">
         <v>4.8362649807386272E-4</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F33" s="41">
         <v>2.2607741826055321E-4</v>
       </c>
-      <c r="K32" s="27"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K33" s="27"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="K34" s="27"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>19</v>
-      </c>
-      <c r="B38" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C38" s="11">
-        <v>10</v>
-      </c>
-      <c r="D38" s="29">
-        <v>6.6173751060697574</v>
-      </c>
-      <c r="E38" s="55">
-        <v>4.9225132747272914E-4</v>
-      </c>
-      <c r="F38" s="24">
-        <v>2.9546964738979273E-4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C39" s="14">
+      <c r="C39" s="11">
+        <v>10</v>
+      </c>
+      <c r="D39" s="29">
+        <v>6.6173751060697574</v>
+      </c>
+      <c r="E39" s="55">
+        <v>4.9225132747272914E-4</v>
+      </c>
+      <c r="F39" s="24">
+        <v>2.9546964738979273E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" s="14">
         <v>50</v>
       </c>
-      <c r="D39" s="31">
+      <c r="D40" s="31">
         <v>6.6476342415584337</v>
       </c>
-      <c r="E39" s="51">
+      <c r="E40" s="51">
         <v>6.3612960374089705E-4</v>
       </c>
-      <c r="F39" s="26">
+      <c r="F40" s="26">
         <v>8.0034560916735224E-4</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>21</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="11">
-        <v>20</v>
-      </c>
-      <c r="D40" s="29">
-        <v>6.4937928128076816</v>
-      </c>
-      <c r="E40" s="20">
-        <v>4.3469185955759108E-4</v>
-      </c>
-      <c r="F40" s="24">
-        <v>1.9433491595482804E-4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>21</v>
       </c>
-      <c r="B41" s="54" t="s">
+      <c r="B41" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="11">
+        <v>20</v>
+      </c>
+      <c r="D41" s="29">
+        <v>6.4937928128076816</v>
+      </c>
+      <c r="E41" s="20">
+        <v>4.3469185955759108E-4</v>
+      </c>
+      <c r="F41" s="24">
+        <v>1.9433491595482804E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="C41" s="37">
+      <c r="C42" s="37">
         <v>50</v>
       </c>
-      <c r="D41" s="31">
+      <c r="D42" s="31">
         <v>6.4392738469110462</v>
       </c>
-      <c r="E41" s="51">
+      <c r="E42" s="51">
         <v>4.1332261535864E-4</v>
       </c>
-      <c r="F41" s="26">
+      <c r="F42" s="26">
         <v>2.6571175145016925E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>40</v>
+      </c>
+      <c r="D45" s="27">
+        <v>2.4606694348620044</v>
+      </c>
+      <c r="E45" s="98">
+        <v>7.8602587258910154E-4</v>
+      </c>
+      <c r="F45" s="75">
+        <v>4.3291963926304087E-4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>50</v>
+      </c>
+      <c r="D46" s="27">
+        <v>2.4741769304222525</v>
+      </c>
+      <c r="E46" s="2">
+        <v>7.1193674886771278E-4</v>
+      </c>
+      <c r="F46" s="2">
+        <v>2.8040200083282672E-4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D47" s="27">
+        <f>((4*D45)+(5*D46))/9</f>
+        <v>2.4681735990621423</v>
+      </c>
+      <c r="E47" s="2">
+        <f t="shared" ref="E47:F47" si="17">((4*E45)+(5*E46))/9</f>
+        <v>7.4486524829944117E-4</v>
+      </c>
+      <c r="F47" s="2">
+        <f t="shared" si="17"/>
+        <v>3.4818761791292191E-4</v>
+      </c>
+      <c r="K47" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="S48" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="52" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="53" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J53">
+        <v>2</v>
+      </c>
+      <c r="K53" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="55" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J55" t="s">
+        <v>110</v>
+      </c>
+      <c r="K55" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/results/spreadsheets/Results Overview.xlsx
+++ b/results/spreadsheets/Results Overview.xlsx
@@ -720,6 +720,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -732,7 +733,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6340,8 +6340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I31" zoomScale="108" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X56" sqref="X56"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="108" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6372,30 +6372,30 @@
       <c r="H1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K1" s="112" t="s">
+      <c r="K1" s="113" t="s">
         <v>92</v>
       </c>
-      <c r="L1" s="113"/>
-      <c r="M1" s="113"/>
-      <c r="N1" s="114"/>
-      <c r="O1" s="112" t="s">
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="115"/>
+      <c r="O1" s="113" t="s">
         <v>81</v>
       </c>
-      <c r="P1" s="113"/>
-      <c r="Q1" s="113"/>
-      <c r="R1" s="114"/>
-      <c r="S1" s="112" t="s">
+      <c r="P1" s="114"/>
+      <c r="Q1" s="114"/>
+      <c r="R1" s="115"/>
+      <c r="S1" s="113" t="s">
         <v>91</v>
       </c>
-      <c r="T1" s="113"/>
-      <c r="U1" s="113"/>
-      <c r="V1" s="114"/>
-      <c r="W1" s="111" t="s">
+      <c r="T1" s="114"/>
+      <c r="U1" s="114"/>
+      <c r="V1" s="115"/>
+      <c r="W1" s="112" t="s">
         <v>79</v>
       </c>
-      <c r="X1" s="111"/>
-      <c r="Y1" s="111"/>
-      <c r="Z1" s="111"/>
+      <c r="X1" s="112"/>
+      <c r="Y1" s="112"/>
+      <c r="Z1" s="112"/>
       <c r="AA1" s="64" t="s">
         <v>80</v>
       </c>
@@ -6941,7 +6941,7 @@
       <c r="AF7" s="84">
         <v>6.2882083724750286</v>
       </c>
-      <c r="AG7" s="115">
+      <c r="AG7" s="111">
         <v>4.7515672608850894E-4</v>
       </c>
       <c r="AH7" s="85">

--- a/results/spreadsheets/Results Overview.xlsx
+++ b/results/spreadsheets/Results Overview.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9696" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9690" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Burgers Summary" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="141">
   <si>
     <t>Method</t>
   </si>
@@ -435,6 +435,18 @@
   </si>
   <si>
     <t>Allen-Cahn</t>
+  </si>
+  <si>
+    <t>no resample</t>
+  </si>
+  <si>
+    <t>wu</t>
+  </si>
+  <si>
+    <t>uxt</t>
+  </si>
+  <si>
+    <t>n=1000</t>
   </si>
 </sst>
 </file>
@@ -981,6 +993,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2142,6 +2155,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2300,6 +2314,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5362,6 +5377,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5473,6 +5489,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6721,6 +6738,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6832,6 +6850,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7409,6 +7428,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7515,6 +7535,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8093,6 +8114,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8714,6 +8736,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -19339,35 +19362,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI55"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="J16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B10" sqref="B10:D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.33203125" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" style="27"/>
-    <col min="5" max="5" width="18.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5546875" style="57" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="27"/>
+    <col min="5" max="5" width="18.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" style="57" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24" customWidth="1"/>
-    <col min="10" max="16" width="9.88671875" customWidth="1"/>
-    <col min="17" max="17" width="18.44140625" style="2" customWidth="1"/>
-    <col min="18" max="20" width="9.88671875" customWidth="1"/>
-    <col min="21" max="21" width="9.88671875" style="2" customWidth="1"/>
-    <col min="22" max="23" width="9.88671875" customWidth="1"/>
-    <col min="24" max="24" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="25.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="11.6640625" customWidth="1"/>
-    <col min="29" max="29" width="11.6640625" style="2" customWidth="1"/>
-    <col min="30" max="31" width="11.6640625" customWidth="1"/>
-    <col min="34" max="34" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="16" width="9.85546875" customWidth="1"/>
+    <col min="17" max="17" width="18.42578125" style="2" customWidth="1"/>
+    <col min="18" max="20" width="9.85546875" customWidth="1"/>
+    <col min="21" max="21" width="9.85546875" style="2" customWidth="1"/>
+    <col min="22" max="23" width="9.85546875" customWidth="1"/>
+    <col min="24" max="24" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="25.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="11.7109375" customWidth="1"/>
+    <col min="29" max="29" width="11.7109375" style="2" customWidth="1"/>
+    <col min="30" max="31" width="11.7109375" customWidth="1"/>
+    <col min="34" max="34" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="24.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="H1" s="1" t="s">
         <v>47</v>
       </c>
@@ -19408,7 +19431,7 @@
       <c r="AG1" s="91"/>
       <c r="AH1" s="66"/>
     </row>
-    <row r="2" spans="1:35" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -19494,7 +19517,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B3" s="15" t="s">
         <v>0</v>
       </c>
@@ -19576,7 +19599,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B4" s="18" t="s">
         <v>4</v>
       </c>
@@ -19669,7 +19692,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B5" s="16" t="s">
         <v>43</v>
       </c>
@@ -19763,7 +19786,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B6" s="16" t="s">
         <v>53</v>
       </c>
@@ -19856,7 +19879,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B7" s="17" t="s">
         <v>5</v>
       </c>
@@ -19950,7 +19973,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="I8" s="3" t="s">
         <v>83</v>
       </c>
@@ -20028,7 +20051,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -20109,7 +20132,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B10" s="53" t="s">
         <v>0</v>
       </c>
@@ -20196,7 +20219,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B11" s="18" t="s">
         <v>4</v>
       </c>
@@ -20286,7 +20309,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B12" s="16" t="s">
         <v>43</v>
       </c>
@@ -20320,7 +20343,7 @@
       <c r="Y12" s="21"/>
       <c r="Z12" s="4"/>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B13" s="16" t="s">
         <v>44</v>
       </c>
@@ -20349,7 +20372,7 @@
       <c r="X13" s="21"/>
       <c r="Z13" s="4"/>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -20385,7 +20408,7 @@
       <c r="X14" s="21"/>
       <c r="Z14" s="4"/>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="56" t="s">
         <v>21</v>
       </c>
@@ -20407,7 +20430,7 @@
       <c r="I15" s="3"/>
       <c r="V15" s="2"/>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="I16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="30"/>
@@ -20426,7 +20449,7 @@
       <c r="Y16" s="21"/>
       <c r="Z16" s="4"/>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="7" t="s">
         <v>0</v>
@@ -20461,7 +20484,7 @@
       <c r="Y17" s="21"/>
       <c r="Z17" s="4"/>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="3" t="s">
         <v>58</v>
@@ -20479,7 +20502,7 @@
         <v>4.2764451039324939E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="3" t="s">
         <v>67</v>
@@ -20501,7 +20524,7 @@
       <c r="T19" s="27"/>
       <c r="X19" s="27"/>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="3" t="s">
         <v>57</v>
@@ -20531,7 +20554,7 @@
       </c>
       <c r="AC20"/>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
       <c r="B21" s="3" t="s">
         <v>56</v>
@@ -20612,7 +20635,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" s="3" t="s">
         <v>61</v>
@@ -20695,7 +20718,7 @@
         <v>9.152299398574554</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
       <c r="B23" s="5" t="s">
         <v>68</v>
@@ -20788,7 +20811,7 @@
         <v>6.7045363062052399</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>69</v>
       </c>
@@ -20883,7 +20906,7 @@
         <v>6.6425910523103218</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>69</v>
       </c>
@@ -20978,7 +21001,7 @@
         <v>6.7834730540950963</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>69</v>
       </c>
@@ -21071,7 +21094,7 @@
         <v>6.2882083724750286</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>15</v>
       </c>
@@ -21166,7 +21189,7 @@
         <v>6.8082700717607985</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>15</v>
       </c>
@@ -21261,7 +21284,7 @@
         <v>8.9498643226702921</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>26</v>
       </c>
@@ -21357,7 +21380,7 @@
         <v>7.6351215843041622</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>26</v>
       </c>
@@ -21459,7 +21482,7 @@
         <v>6.9676561199558948</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>26</v>
       </c>
@@ -21483,7 +21506,7 @@
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32" s="32" t="s">
         <v>77</v>
       </c>
@@ -21507,7 +21530,7 @@
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="32" t="s">
         <v>76</v>
       </c>
@@ -21531,30 +21554,30 @@
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>19</v>
       </c>
@@ -21574,7 +21597,7 @@
         <v>2.9546964738979273E-4</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>19</v>
       </c>
@@ -21594,7 +21617,7 @@
         <v>8.0034560916735224E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>21</v>
       </c>
@@ -21614,7 +21637,7 @@
         <v>1.9433491595482804E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>21</v>
       </c>
@@ -21634,7 +21657,7 @@
         <v>2.6571175145016925E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C45">
         <v>40</v>
       </c>
@@ -21648,7 +21671,7 @@
         <v>4.3291963926304087E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C46">
         <v>50</v>
       </c>
@@ -21662,7 +21685,7 @@
         <v>2.8040200083282672E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D47" s="27">
         <f>((4*D45)+(5*D46))/9</f>
         <v>2.4681735990621423</v>
@@ -21679,7 +21702,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="S48" t="s">
         <v>106</v>
       </c>
@@ -21687,7 +21710,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="52" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J52">
         <v>1</v>
       </c>
@@ -21695,7 +21718,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="53" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J53">
         <v>2</v>
       </c>
@@ -21703,7 +21726,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="55" spans="10:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="10:11" x14ac:dyDescent="0.25">
       <c r="J55" t="s">
         <v>110</v>
       </c>
@@ -21732,13 +21755,13 @@
       <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C1" s="177" t="s">
         <v>1</v>
       </c>
@@ -21764,7 +21787,7 @@
       <c r="S1" s="177"/>
       <c r="T1" s="166"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C2" s="174" t="s">
         <v>132</v>
       </c>
@@ -21790,7 +21813,7 @@
       <c r="S2" s="176"/>
       <c r="T2" s="167"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
@@ -21852,7 +21875,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>123</v>
       </c>
@@ -21914,7 +21937,7 @@
         <v>3.4755864065810715E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>112</v>
       </c>
@@ -21976,7 +21999,7 @@
         <v>8.0034560916735224E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="62" t="s">
         <v>36</v>
       </c>
@@ -22038,7 +22061,7 @@
         <v>4.136445436834629E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>126</v>
       </c>
@@ -22116,19 +22139,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D5"/>
+  <dimension ref="B2:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="68"/>
       <c r="C2" s="68" t="s">
         <v>135</v>
@@ -22136,8 +22159,11 @@
       <c r="D2" s="68" t="s">
         <v>136</v>
       </c>
+      <c r="E2" s="68" t="s">
+        <v>136</v>
+      </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="68" t="s">
         <v>133</v>
       </c>
@@ -22147,8 +22173,11 @@
       <c r="D3" s="68">
         <v>2000</v>
       </c>
+      <c r="E3" s="68">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="68" t="s">
         <v>125</v>
       </c>
@@ -22158,8 +22187,11 @@
       <c r="D4" s="171">
         <v>1.5723195585830318E-4</v>
       </c>
+      <c r="E4" s="171">
+        <v>1.7229788549101105E-4</v>
+      </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="68" t="s">
         <v>134</v>
       </c>
@@ -22169,6 +22201,24 @@
       <c r="D5" s="171">
         <v>1.8006410808587452E-3</v>
       </c>
+      <c r="E5" s="171">
+        <v>3.5516194937243476E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C16" s="27"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="75"/>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C17" s="27"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="75"/>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="27"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="75"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22177,20 +22227,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S14"/>
+  <dimension ref="A1:X14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L39" sqref="L39"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U19" sqref="U19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C1" s="174" t="s">
         <v>38</v>
       </c>
@@ -22217,7 +22268,7 @@
       <c r="R1" s="179"/>
       <c r="S1" s="127"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
@@ -22276,7 +22327,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>123</v>
       </c>
@@ -22325,7 +22376,7 @@
       </c>
       <c r="S3" s="18"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>123</v>
       </c>
@@ -22374,7 +22425,7 @@
       </c>
       <c r="S4" s="17"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>112</v>
       </c>
@@ -22423,7 +22474,7 @@
       </c>
       <c r="S5" s="16"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>119</v>
       </c>
@@ -22472,7 +22523,7 @@
       </c>
       <c r="S6" s="16"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>36</v>
       </c>
@@ -22521,7 +22572,7 @@
       </c>
       <c r="S7" s="18"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>36</v>
       </c>
@@ -22570,7 +22621,7 @@
       </c>
       <c r="S8" s="17"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>116</v>
       </c>
@@ -22619,7 +22670,7 @@
       </c>
       <c r="S9" s="16"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>116</v>
       </c>
@@ -22667,8 +22718,11 @@
         <v>1.3152318182401298E-3</v>
       </c>
       <c r="S10" s="16"/>
+      <c r="U10" t="s">
+        <v>140</v>
+      </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>119</v>
       </c>
@@ -22716,8 +22770,20 @@
         <v>6.7811121786916645E-3</v>
       </c>
       <c r="S11" s="18"/>
+      <c r="U11" t="s">
+        <v>137</v>
+      </c>
+      <c r="V11" s="27">
+        <v>5.6862138099299395</v>
+      </c>
+      <c r="W11" s="98">
+        <v>1.7229788549101105E-4</v>
+      </c>
+      <c r="X11" s="75">
+        <v>1.2751155160426627E-5</v>
+      </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>119</v>
       </c>
@@ -22765,8 +22831,20 @@
         <v>6.2504146170973942E-3</v>
       </c>
       <c r="S12" s="17"/>
+      <c r="U12" t="s">
+        <v>138</v>
+      </c>
+      <c r="V12" s="27">
+        <v>4.3473319473372438</v>
+      </c>
+      <c r="W12" s="98">
+        <v>3.5516194937243476E-3</v>
+      </c>
+      <c r="X12" s="75">
+        <v>6.393800033238117E-3</v>
+      </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>126</v>
       </c>
@@ -22814,8 +22892,20 @@
         <v>2.6276170301547694E-3</v>
       </c>
       <c r="S13" s="16"/>
+      <c r="U13" t="s">
+        <v>139</v>
+      </c>
+      <c r="V13" s="27">
+        <v>4.147073000231039</v>
+      </c>
+      <c r="W13" s="98">
+        <v>7.7184528176727019E-3</v>
+      </c>
+      <c r="X13" s="75">
+        <v>4.8516322387169115E-3</v>
+      </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>126</v>
       </c>
@@ -22887,9 +22977,9 @@
       <selection activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>124</v>
       </c>
@@ -22897,7 +22987,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>129</v>
       </c>
@@ -22917,7 +23007,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -22937,7 +23027,7 @@
         <v>0.85011200669771603</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>10000</v>
       </c>
@@ -22957,7 +23047,7 @@
         <v>5.31436755056323E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>15000</v>
       </c>
@@ -22977,7 +23067,7 @@
         <v>9.2074255800552395E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>15000</v>
       </c>
@@ -22997,7 +23087,7 @@
         <v>9.2074255800552395E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>20000</v>
       </c>
@@ -23017,7 +23107,7 @@
         <v>9.2026244499063793E-6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>30000</v>
       </c>
@@ -23037,7 +23127,7 @@
         <v>1.6422225023270001E-6</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>40000</v>
       </c>
@@ -23057,7 +23147,7 @@
         <v>6.5116946846434505E-7</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>50000</v>
       </c>
@@ -23077,7 +23167,7 @@
         <v>3.78738507059801E-7</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>60000</v>
       </c>
@@ -23097,7 +23187,7 @@
         <v>2.5588131327053299E-7</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>70000</v>
       </c>
@@ -23117,7 +23207,7 @@
         <v>2.01544925767743E-7</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>80000</v>
       </c>
@@ -23137,7 +23227,7 @@
         <v>1.60919824370242E-7</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>90000</v>
       </c>
@@ -23157,7 +23247,7 @@
         <v>1.3703947909155701E-7</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>100000</v>
       </c>
@@ -23177,7 +23267,7 @@
         <v>1.2055444704729601E-7</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>110000</v>
       </c>
@@ -23197,7 +23287,7 @@
         <v>1.0916885325234201E-7</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>120000</v>
       </c>
@@ -23217,7 +23307,7 @@
         <v>9.8362379222636101E-8</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>130000</v>
       </c>
@@ -23237,7 +23327,7 @@
         <v>9.0630800965466194E-8</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>140000</v>
       </c>
@@ -23257,7 +23347,7 @@
         <v>8.3526053142033499E-8</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>150000</v>
       </c>
@@ -23277,7 +23367,7 @@
         <v>7.7554911775123797E-8</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>160000</v>
       </c>
@@ -23297,7 +23387,7 @@
         <v>7.2563057526737306E-8</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>170000</v>
       </c>
@@ -23317,7 +23407,7 @@
         <v>6.8443994238359405E-8</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>180000</v>
       </c>
@@ -23337,7 +23427,7 @@
         <v>6.4264250140045006E-8</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>190000</v>
       </c>
@@ -23357,7 +23447,7 @@
         <v>6.09572502478564E-8</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>200000</v>
       </c>
@@ -23377,7 +23467,7 @@
         <v>5.7892290025897999E-8</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>210000</v>
       </c>
@@ -23397,7 +23487,7 @@
         <v>5.4672630037131797E-8</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>220000</v>
       </c>
@@ -23417,7 +23507,7 @@
         <v>5.1775103843723499E-8</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>230000</v>
       </c>
@@ -23437,7 +23527,7 @@
         <v>4.91213799705783E-8</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>240000</v>
       </c>
@@ -23457,7 +23547,7 @@
         <v>4.7343496261112102E-8</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>250000</v>
       </c>
@@ -23477,7 +23567,7 @@
         <v>4.62263188776967E-8</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>260000</v>
       </c>
@@ -23497,7 +23587,7 @@
         <v>4.5214384184331099E-8</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>270000</v>
       </c>
@@ -23517,7 +23607,7 @@
         <v>4.4408856549915903E-8</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>280000</v>
       </c>
@@ -23537,7 +23627,7 @@
         <v>4.3553581401780903E-8</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>290000</v>
       </c>
@@ -23557,7 +23647,7 @@
         <v>4.2756909490131E-8</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>300000</v>
       </c>
@@ -23577,7 +23667,7 @@
         <v>4.19906114844401E-8</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>310000</v>
       </c>
@@ -23597,7 +23687,7 @@
         <v>4.1422235425819097E-8</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>320000</v>
       </c>
@@ -23617,7 +23707,7 @@
         <v>4.0921967146942303E-8</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>330000</v>
       </c>
@@ -23637,7 +23727,7 @@
         <v>4.0449729646364203E-8</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>340000</v>
       </c>
@@ -23657,7 +23747,7 @@
         <v>3.9902964011607798E-8</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>350000</v>
       </c>
@@ -23677,7 +23767,7 @@
         <v>3.9346560906847403E-8</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>360000</v>
       </c>
@@ -23697,7 +23787,7 @@
         <v>3.8869277375702702E-8</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>370000</v>
       </c>
@@ -23717,7 +23807,7 @@
         <v>3.8451817599629E-8</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>380000</v>
       </c>
@@ -23737,7 +23827,7 @@
         <v>3.8028031615645001E-8</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>390000</v>
       </c>
@@ -23757,7 +23847,7 @@
         <v>3.74916953123856E-8</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>400000</v>
       </c>
@@ -23777,7 +23867,7 @@
         <v>3.71353117629118E-8</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>410000</v>
       </c>
@@ -23797,7 +23887,7 @@
         <v>3.6781021536088701E-8</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>420000</v>
       </c>
@@ -23817,7 +23907,7 @@
         <v>3.6450534489262599E-8</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>430000</v>
       </c>
@@ -23837,7 +23927,7 @@
         <v>3.61712343379565E-8</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>430965</v>
       </c>
@@ -23871,20 +23961,20 @@
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.109375" style="2"/>
-    <col min="9" max="9" width="9.109375" style="57"/>
-    <col min="11" max="11" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="2"/>
+    <col min="9" max="9" width="9.140625" style="57"/>
+    <col min="11" max="11" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15" customWidth="1"/>
-    <col min="15" max="15" width="9.109375" style="27"/>
-    <col min="16" max="17" width="9.109375" style="2"/>
+    <col min="15" max="15" width="9.140625" style="27"/>
+    <col min="16" max="17" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -23895,7 +23985,7 @@
       </c>
       <c r="P2" s="49"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
@@ -23936,7 +24026,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
         <v>11</v>
       </c>
@@ -23980,7 +24070,7 @@
         <v>4.2846792135832187E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
@@ -24024,7 +24114,7 @@
         <v>3.2581148646597212E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>11</v>
       </c>
@@ -24068,7 +24158,7 @@
         <v>9.5817494854836E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
         <v>12</v>
       </c>
@@ -24091,7 +24181,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>12</v>
       </c>
@@ -24112,7 +24202,7 @@
       </c>
       <c r="H8" s="56"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>30</v>
       </c>
@@ -24132,7 +24222,7 @@
         <v>2.048560416308142E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>30</v>
       </c>
@@ -24152,7 +24242,7 @@
         <v>1.9147480743070145E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>30</v>
       </c>
@@ -24172,7 +24262,7 @@
         <v>1.6975951420033131E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
         <v>15</v>
       </c>
@@ -24192,7 +24282,7 @@
         <v>1.5400170959997073E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>15</v>
       </c>
@@ -24212,7 +24302,7 @@
         <v>1.9083453268669933E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
         <v>17</v>
       </c>
@@ -24235,7 +24325,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>17</v>
       </c>
@@ -24258,7 +24348,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>17</v>
       </c>
@@ -24281,7 +24371,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="33" t="s">
         <v>26</v>
       </c>
@@ -24301,7 +24391,7 @@
         <v>1.7706268644262122E-4</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="33" t="s">
         <v>26</v>
       </c>
@@ -24321,7 +24411,7 @@
         <v>1.5978325040835362E-4</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="35" t="s">
         <v>26</v>
       </c>
@@ -24341,16 +24431,16 @@
         <v>1.3070070314676611E-4</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E20" s="27"/>
       <c r="F20" s="49"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="E21" s="27"/>
       <c r="F21" s="49"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="7"/>
       <c r="C22" s="8" t="s">
         <v>0</v>
@@ -24368,7 +24458,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>36</v>
       </c>
@@ -24391,7 +24481,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>36</v>
       </c>
@@ -24411,7 +24501,7 @@
         <v>2.1633824782506494E-4</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
         <v>36</v>
       </c>
@@ -24434,7 +24524,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
         <v>36</v>
       </c>
@@ -24457,7 +24547,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>36</v>
       </c>
@@ -24480,7 +24570,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="58" t="s">
         <v>62</v>
       </c>
@@ -24490,7 +24580,7 @@
       <c r="F28" s="40"/>
       <c r="G28" s="41"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="60" t="s">
         <v>63</v>
       </c>
@@ -24500,7 +24590,7 @@
       <c r="F29" s="20"/>
       <c r="G29" s="24"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="35" t="s">
         <v>64</v>
       </c>
@@ -24510,13 +24600,13 @@
       <c r="F30" s="22"/>
       <c r="G30" s="26"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E32" s="27"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="42" t="s">
         <v>59</v>
       </c>
@@ -24536,7 +24626,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
         <v>21</v>
       </c>
@@ -24559,7 +24649,7 @@
         <v>2.3492443632009731E-4</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>21</v>
       </c>
@@ -24582,7 +24672,7 @@
         <v>3.6258165586535845E-4</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="59" t="s">
         <v>54</v>
       </c>
@@ -24605,7 +24695,7 @@
         <v>4.2764451039324939E-4</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="58" t="s">
         <v>55</v>
       </c>
@@ -24628,7 +24718,7 @@
         <v>6.1133261759914058E-4</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="58" t="s">
         <v>55</v>
       </c>

--- a/results/spreadsheets/Results Overview.xlsx
+++ b/results/spreadsheets/Results Overview.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16635" windowHeight="9105" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16635" windowHeight="9105" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Compiling run results" sheetId="9" r:id="rId1"/>
@@ -1286,6 +1286,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2648,6 +2649,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2805,6 +2807,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2908,6 +2911,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3436,6 +3440,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3537,6 +3542,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -12773,6 +12779,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -23642,6 +23649,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -24870,6 +24878,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -26289,6 +26298,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -27171,6 +27181,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -28008,6 +28019,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -28844,6 +28856,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -29680,6 +29693,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -29790,6 +29804,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -29936,6 +29951,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -30464,6 +30480,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -30565,6 +30582,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -48095,8 +48113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B18:F21"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52189,8 +52207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ73"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView topLeftCell="K1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -55053,7 +55071,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G35"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
@@ -55654,8 +55672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57359,8 +57377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V12" sqref="V12"/>
+    <sheetView topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/results/spreadsheets/Results Overview.xlsx
+++ b/results/spreadsheets/Results Overview.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16635" windowHeight="9105" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16635" windowHeight="9105" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Compiling run results" sheetId="9" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="202">
   <si>
     <t>Method</t>
   </si>
@@ -420,12 +420,6 @@
     <t>Allen-Cahn</t>
   </si>
   <si>
-    <t>no resample</t>
-  </si>
-  <si>
-    <t>wu</t>
-  </si>
-  <si>
     <t>uxt</t>
   </si>
   <si>
@@ -605,6 +599,42 @@
   <si>
     <t>100 Loops, 50 repeats to check:</t>
   </si>
+  <si>
+    <t>no resample, H, 400</t>
+  </si>
+  <si>
+    <t>no resample, H, 216</t>
+  </si>
+  <si>
+    <t>no resample, R, 216</t>
+  </si>
+  <si>
+    <t>n=1000m 4k loops per L</t>
+  </si>
+  <si>
+    <t>wu (pde,R)</t>
+  </si>
+  <si>
+    <t>pde, H</t>
+  </si>
+  <si>
+    <t>PDE, H</t>
+  </si>
+  <si>
+    <t>Pde, R</t>
+  </si>
+  <si>
+    <t>v = 0.01, N=1000</t>
+  </si>
+  <si>
+    <t>Fixed Random</t>
+  </si>
+  <si>
+    <t>Fixed Ham</t>
+  </si>
+  <si>
+    <t>PDE Ham</t>
+  </si>
 </sst>
 </file>
 
@@ -632,7 +662,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -672,6 +702,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -868,7 +910,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="276">
+  <cellXfs count="283">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1181,6 +1223,12 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1229,6 +1277,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1286,7 +1335,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2649,7 +2697,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2807,7 +2854,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2911,7 +2957,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3440,7 +3485,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3542,7 +3586,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3786,7 +3829,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>No-Re Random</c:v>
+                  <c:v>Fixed Random</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3879,7 +3922,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>No-Re ham</c:v>
+                  <c:v>Fixed Ham</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4657,7 +4700,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>No-Re Random</c:v>
+                  <c:v>Fixed Random</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4750,7 +4793,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>No-Re ham</c:v>
+                  <c:v>Fixed Ham</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12779,6 +12822,797 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>PDE, R</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>100</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Allen Cahn'!$W$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.000E+00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3.5516194937243476E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-96C3-41B7-953E-D06D40ED5559}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Uxt</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>100</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Allen Cahn'!$W$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.000E+00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7.7184528176727019E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-96C3-41B7-953E-D06D40ED5559}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>PDExt</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>100</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Allen Cahn'!$W$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.000E+00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4.7137710453766862E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-96C3-41B7-953E-D06D40ED5559}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>PDE, R; 4k</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>50</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Allen Cahn'!$W$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.2701010008458137E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-96C3-41B7-953E-D06D40ED5559}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>PDE, H, 4k</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>50</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Allen Cahn'!$W$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.0450044847405025E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-96C3-41B7-953E-D06D40ED5559}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Uxt, 4k</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>50</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Allen Cahn'!$W$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.0417316483263385E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-96C3-41B7-953E-D06D40ED5559}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>PDExt, 4k</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>50</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Allen Cahn'!$W$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.6267312165700726E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-96C3-41B7-953E-D06D40ED5559}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>Fixed 216, H</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>100</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('Allen Cahn'!$W$4,'Allen Cahn'!$W$4)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000E+00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.7693120572754266E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7693120572754266E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-96C3-41B7-953E-D06D40ED5559}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:v>Fixed, 400, H</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>100</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('Allen Cahn'!$W$5,'Allen Cahn'!$W$5)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000E+00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.7229788549101105E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7229788549101105E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-96C3-41B7-953E-D06D40ED5559}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:v>Fixed, 216, R</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>100</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('Allen Cahn'!$W$3,'Allen Cahn'!$W$3)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000E+00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.33599820758808907</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.33599820758808907</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-96C3-41B7-953E-D06D40ED5559}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="533358488"/>
+        <c:axId val="533358816"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="533358488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="533358816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="533358816"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="533358488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -12846,7 +13680,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -14491,7 +15325,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -15719,7 +16553,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -17078,7 +17912,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -17887,7 +18721,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -18702,7 +19536,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -19517,7 +20351,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -20332,7 +21166,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -21978,7 +22812,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -22791,819 +23625,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>IC 3</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.19943368055555555"/>
-          <c:y val="0.35336574074074073"/>
-          <c:w val="0.74434236111111107"/>
-          <c:h val="0.46253333333333335"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Burgers Summary OG Backup'!$J$53</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Fixed, R</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Burgers Summary OG Backup'!$I$61:$I$64</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Burgers Summary OG Backup'!$J$61:$J$64</c:f>
-              <c:numCache>
-                <c:formatCode>0.000E+00</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.54658160231153974</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.54658160231153974</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.54658160231153974</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.54658160231153974</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-82A3-47E7-8F1B-162A33A41029}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Burgers Summary OG Backup'!$K$53</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Fixed, H</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Burgers Summary OG Backup'!$I$61:$I$64</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Burgers Summary OG Backup'!$K$61:$K$64</c:f>
-              <c:numCache>
-                <c:formatCode>0.000E+00</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.31389074440629061</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.31389074440629061</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.31389074440629061</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.31389074440629061</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-82A3-47E7-8F1B-162A33A41029}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Burgers Summary OG Backup'!$L$53</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>PDE, R</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Burgers Summary OG Backup'!$I$61:$I$64</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Burgers Summary OG Backup'!$L$61:$L$64</c:f>
-              <c:numCache>
-                <c:formatCode>0.000E+00</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0" formatCode="0.00E+00">
-                  <c:v>0.54393745005852256</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.49392920310718313</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.50236024974149485</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.50752237985766269</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-82A3-47E7-8F1B-162A33A41029}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Burgers Summary OG Backup'!$M$53</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Uxt</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Burgers Summary OG Backup'!$I$61:$I$64</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Burgers Summary OG Backup'!$M$61:$M$64</c:f>
-              <c:numCache>
-                <c:formatCode>0.000E+00</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0" formatCode="0.00E+00">
-                  <c:v>0.61100328158437056</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5837894570112715</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.51885148642105139</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.5116822645753315</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-82A3-47E7-8F1B-162A33A41029}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Burgers Summary OG Backup'!$N$53</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>PDExt</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Burgers Summary OG Backup'!$I$61:$I$64</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Burgers Summary OG Backup'!$N$61:$N$64</c:f>
-              <c:numCache>
-                <c:formatCode>0.000E+00</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0" formatCode="0.00E+00">
-                  <c:v>0.34783726962650963</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.37844115589576416</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.40236635358566486</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.31814640356106449</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-82A3-47E7-8F1B-162A33A41029}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="523189144"/>
-        <c:axId val="523189800"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="523189144"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="100"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Loop #</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="523189800"/>
-        <c:crossesAt val="1.0000000000000002E-2"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="523189800"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Error</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0E+0" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="523189144"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="7.1425694444444465E-2"/>
-          <c:y val="0.12241759259259259"/>
-          <c:w val="0.8844770833333333"/>
-          <c:h val="0.2376648148148148"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -23649,7 +23670,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -24878,7 +24898,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -24933,6 +24952,819 @@
     <a:p>
       <a:pPr>
         <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>IC 3</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.19943368055555555"/>
+          <c:y val="0.35336574074074073"/>
+          <c:w val="0.74434236111111107"/>
+          <c:h val="0.46253333333333335"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Burgers Summary OG Backup'!$J$53</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fixed, R</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Burgers Summary OG Backup'!$I$61:$I$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Burgers Summary OG Backup'!$J$61:$J$64</c:f>
+              <c:numCache>
+                <c:formatCode>0.000E+00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.54658160231153974</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.54658160231153974</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.54658160231153974</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.54658160231153974</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-82A3-47E7-8F1B-162A33A41029}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Burgers Summary OG Backup'!$K$53</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fixed, H</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Burgers Summary OG Backup'!$I$61:$I$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Burgers Summary OG Backup'!$K$61:$K$64</c:f>
+              <c:numCache>
+                <c:formatCode>0.000E+00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.31389074440629061</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.31389074440629061</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.31389074440629061</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.31389074440629061</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-82A3-47E7-8F1B-162A33A41029}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Burgers Summary OG Backup'!$L$53</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PDE, R</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Burgers Summary OG Backup'!$I$61:$I$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Burgers Summary OG Backup'!$L$61:$L$64</c:f>
+              <c:numCache>
+                <c:formatCode>0.000E+00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="0.00E+00">
+                  <c:v>0.54393745005852256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.49392920310718313</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.50236024974149485</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.50752237985766269</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-82A3-47E7-8F1B-162A33A41029}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Burgers Summary OG Backup'!$M$53</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Uxt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Burgers Summary OG Backup'!$I$61:$I$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Burgers Summary OG Backup'!$M$61:$M$64</c:f>
+              <c:numCache>
+                <c:formatCode>0.000E+00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="0.00E+00">
+                  <c:v>0.61100328158437056</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5837894570112715</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.51885148642105139</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5116822645753315</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-82A3-47E7-8F1B-162A33A41029}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Burgers Summary OG Backup'!$N$53</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PDExt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Burgers Summary OG Backup'!$I$61:$I$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Burgers Summary OG Backup'!$N$61:$N$64</c:f>
+              <c:numCache>
+                <c:formatCode>0.000E+00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="0.00E+00">
+                  <c:v>0.34783726962650963</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.37844115589576416</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.40236635358566486</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.31814640356106449</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-82A3-47E7-8F1B-162A33A41029}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="523189144"/>
+        <c:axId val="523189800"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="523189144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Loop #</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="523189800"/>
+        <c:crossesAt val="1.0000000000000002E-2"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="523189800"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Error</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0E+0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="523189144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.1425694444444465E-2"/>
+          <c:y val="0.12241759259259259"/>
+          <c:w val="0.8844770833333333"/>
+          <c:h val="0.2376648148148148"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -26298,7 +27130,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -27181,7 +28012,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -28019,7 +28849,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -28856,7 +29685,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -29693,7 +30521,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -29804,7 +30631,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -29951,7 +30777,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -30480,7 +31305,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -30582,7 +31406,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -31650,6 +32473,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors30.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -43243,6 +44106,522 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style30.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -47225,14 +48604,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>393456</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>608925</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>308521</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>178800</xdr:rowOff>
     </xdr:to>
@@ -47257,16 +48636,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>169985</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>608925</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>102600</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>286540</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>43985</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -47490,16 +48869,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>89535</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>664845</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>165735</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -47515,6 +48894,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -48860,13 +50269,13 @@
         <v>47</v>
       </c>
       <c r="K1" s="169" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L1" s="170"/>
       <c r="M1" s="170"/>
       <c r="N1" s="171"/>
       <c r="O1" s="169" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P1" s="170"/>
       <c r="Q1" s="170"/>
@@ -49353,10 +50762,10 @@
       </c>
       <c r="H6" s="161"/>
       <c r="I6" s="161" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J6" s="161" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K6" s="33"/>
       <c r="L6" s="97">
@@ -49441,7 +50850,7 @@
         <v>2.6571175145016925E-4</v>
       </c>
       <c r="AQ6" s="161" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:43" s="57" customFormat="1" x14ac:dyDescent="0.25">
@@ -49556,7 +50965,7 @@
         <v>20</v>
       </c>
       <c r="L8" s="32" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M8" s="32"/>
       <c r="N8" s="34"/>
@@ -49564,7 +50973,7 @@
         <v>20</v>
       </c>
       <c r="P8" s="161" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="Q8" s="49"/>
       <c r="R8" s="161"/>
@@ -49660,7 +51069,7 @@
         <v>20</v>
       </c>
       <c r="L9" s="179" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M9" s="179"/>
       <c r="N9" s="181"/>
@@ -49668,7 +51077,7 @@
         <v>20</v>
       </c>
       <c r="P9" s="57" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="Q9" s="177"/>
       <c r="S9" s="178"/>
@@ -50428,10 +51837,10 @@
         <v>85</v>
       </c>
       <c r="J22" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K22" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="L22" s="33"/>
       <c r="M22" s="50">
@@ -50451,10 +51860,10 @@
         <v>85</v>
       </c>
       <c r="T22" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="U22" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="V22" s="33">
         <f>V3</f>
@@ -50726,7 +52135,7 @@
         <v>2.1236685518637752E-4</v>
       </c>
       <c r="I25" s="32" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J25" s="80">
         <v>7.457365231906421E-2</v>
@@ -50776,10 +52185,10 @@
         <v>87</v>
       </c>
       <c r="J26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="L26" s="81">
         <v>1.0615147888803126E-3</v>
@@ -50803,10 +52212,10 @@
         <v>87</v>
       </c>
       <c r="T26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="U26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="V26" s="81">
         <f t="shared" ref="V26:V31" si="0">V7</f>
@@ -50883,10 +52292,10 @@
         <v>88</v>
       </c>
       <c r="J27" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K27" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L27" s="81">
         <v>1.1778839428150025E-3</v>
@@ -50983,10 +52392,10 @@
         <v>89</v>
       </c>
       <c r="J28" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K28" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="L28" s="81">
         <v>1.0731943763652566E-3</v>
@@ -51292,10 +52701,10 @@
         <v>103</v>
       </c>
       <c r="J31" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K31" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="L31" s="2">
         <f>U12</f>
@@ -51326,10 +52735,10 @@
         <v>103</v>
       </c>
       <c r="T31" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="U31" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="V31" s="94">
         <f t="shared" si="0"/>
@@ -51593,7 +53002,7 @@
     </row>
     <row r="52" spans="3:24" x14ac:dyDescent="0.25">
       <c r="I52" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O52" s="33"/>
     </row>
@@ -51602,19 +53011,19 @@
         <v>66</v>
       </c>
       <c r="J53" s="73" t="s">
+        <v>175</v>
+      </c>
+      <c r="K53" s="73" t="s">
+        <v>176</v>
+      </c>
+      <c r="L53" s="73" t="s">
         <v>177</v>
       </c>
-      <c r="K53" s="73" t="s">
-        <v>178</v>
-      </c>
-      <c r="L53" s="73" t="s">
-        <v>179</v>
-      </c>
       <c r="M53" s="73" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="N53" s="73" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O53" s="161"/>
     </row>
@@ -51713,7 +53122,7 @@
     </row>
     <row r="59" spans="3:24" x14ac:dyDescent="0.25">
       <c r="I59" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="60" spans="3:24" x14ac:dyDescent="0.25">
@@ -51721,19 +53130,19 @@
         <v>66</v>
       </c>
       <c r="J60" s="73" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K60" s="73" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L60" s="73" t="s">
         <v>86</v>
       </c>
       <c r="M60" s="73" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="N60" s="73" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="R60" s="162"/>
       <c r="S60" s="162"/>
@@ -51880,7 +53289,7 @@
     </row>
     <row r="67" spans="9:24" x14ac:dyDescent="0.25">
       <c r="I67" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="R67" s="162"/>
       <c r="S67" s="162"/>
@@ -51895,19 +53304,19 @@
         <v>66</v>
       </c>
       <c r="J68" s="73" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K68" s="73" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L68" s="73" t="s">
         <v>86</v>
       </c>
       <c r="M68" s="73" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="N68" s="73" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="R68" s="162"/>
       <c r="S68" s="162"/>
@@ -52054,7 +53463,7 @@
     </row>
     <row r="75" spans="9:24" x14ac:dyDescent="0.25">
       <c r="I75" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="R75" s="162"/>
       <c r="S75" s="162"/>
@@ -52069,19 +53478,19 @@
         <v>66</v>
       </c>
       <c r="J76" s="73" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K76" s="73" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L76" s="73" t="s">
         <v>86</v>
       </c>
       <c r="M76" s="73" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="N76" s="73" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="R76" s="162"/>
       <c r="S76" s="162"/>
@@ -52250,13 +53659,13 @@
         <v>47</v>
       </c>
       <c r="K1" s="169" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L1" s="170"/>
       <c r="M1" s="170"/>
       <c r="N1" s="171"/>
       <c r="O1" s="169" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P1" s="170"/>
       <c r="Q1" s="170"/>
@@ -52743,10 +54152,10 @@
       </c>
       <c r="H6" s="161"/>
       <c r="I6" s="161" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J6" s="161" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K6" s="33"/>
       <c r="L6" s="97">
@@ -52831,7 +54240,7 @@
         <v>2.6571175145016925E-4</v>
       </c>
       <c r="AQ6" s="161" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:43" s="57" customFormat="1" x14ac:dyDescent="0.25">
@@ -52946,7 +54355,7 @@
         <v>20</v>
       </c>
       <c r="L8" s="32" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M8" s="32"/>
       <c r="N8" s="34"/>
@@ -52954,7 +54363,7 @@
         <v>20</v>
       </c>
       <c r="P8" s="161" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="Q8" s="49"/>
       <c r="R8" s="161"/>
@@ -53050,7 +54459,7 @@
         <v>20</v>
       </c>
       <c r="L9" s="179" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M9" s="179"/>
       <c r="N9" s="181"/>
@@ -53058,7 +54467,7 @@
         <v>20</v>
       </c>
       <c r="P9" s="57" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="Q9" s="177"/>
       <c r="S9" s="178"/>
@@ -53676,10 +55085,10 @@
         <v>85</v>
       </c>
       <c r="J17" s="235" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K17" s="235" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="L17" s="236"/>
       <c r="M17" s="237">
@@ -53700,10 +55109,10 @@
         <v>85</v>
       </c>
       <c r="T17" s="235" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="U17" s="235" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="V17" s="236">
         <f>V3</f>
@@ -53980,7 +55389,7 @@
         <v>2.1236685518637752E-4</v>
       </c>
       <c r="I20" s="32" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J20" s="80">
         <v>7.457365231906421E-2</v>
@@ -54048,10 +55457,10 @@
         <v>87</v>
       </c>
       <c r="J21" s="235" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K21" s="235" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="L21" s="246">
         <v>1.0615147888803126E-3</v>
@@ -54076,10 +55485,10 @@
         <v>87</v>
       </c>
       <c r="T21" s="235" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="U21" s="235" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="V21" s="246">
         <f t="shared" ref="V21:V26" si="0">V7</f>
@@ -54157,10 +55566,10 @@
         <v>88</v>
       </c>
       <c r="J22" s="161" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K22" s="161" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L22" s="81">
         <v>1.1778839428150025E-3</v>
@@ -54260,10 +55669,10 @@
         <v>89</v>
       </c>
       <c r="J23" s="235" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K23" s="235" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="L23" s="246">
         <v>1.0731943763652566E-3</v>
@@ -54575,10 +55984,10 @@
         <v>103</v>
       </c>
       <c r="J26" s="161" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K26" s="161" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="L26" s="49">
         <f>U12</f>
@@ -54609,10 +56018,10 @@
         <v>103</v>
       </c>
       <c r="T26" s="161" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="U26" s="161" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="V26" s="82">
         <f t="shared" si="0"/>
@@ -55084,7 +56493,7 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
@@ -55092,19 +56501,19 @@
         <v>66</v>
       </c>
       <c r="C3" s="209" t="s">
+        <v>175</v>
+      </c>
+      <c r="D3" s="209" t="s">
+        <v>176</v>
+      </c>
+      <c r="E3" s="209" t="s">
         <v>177</v>
       </c>
-      <c r="D3" s="209" t="s">
-        <v>178</v>
-      </c>
-      <c r="E3" s="209" t="s">
-        <v>179</v>
-      </c>
       <c r="F3" s="209" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G3" s="209" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
@@ -55229,7 +56638,7 @@
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
@@ -55237,19 +56646,19 @@
         <v>66</v>
       </c>
       <c r="C11" s="209" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D11" s="209" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E11" s="209" t="s">
         <v>86</v>
       </c>
       <c r="F11" s="209" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G11" s="209" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
@@ -55374,7 +56783,7 @@
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
@@ -55382,19 +56791,19 @@
         <v>66</v>
       </c>
       <c r="C20" s="209" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D20" s="209" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E20" s="209" t="s">
         <v>86</v>
       </c>
       <c r="F20" s="209" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G20" s="209" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
@@ -55519,7 +56928,7 @@
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
@@ -55527,19 +56936,19 @@
         <v>66</v>
       </c>
       <c r="C29" s="209" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D29" s="209" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E29" s="209" t="s">
         <v>86</v>
       </c>
       <c r="F29" s="209" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G29" s="209" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
@@ -55670,61 +57079,90 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G26"/>
+  <dimension ref="B1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D2" t="s">
         <v>184</v>
       </c>
-      <c r="C2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>188</v>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>198</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="65" t="s">
         <v>66</v>
       </c>
       <c r="C12" s="259" t="s">
-        <v>143</v>
+        <v>199</v>
       </c>
       <c r="D12" s="209" t="s">
-        <v>144</v>
+        <v>200</v>
       </c>
       <c r="E12" s="209" t="s">
         <v>86</v>
       </c>
       <c r="F12" s="209" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G12" s="209" t="s">
-        <v>138</v>
+        <v>136</v>
+      </c>
+      <c r="I12" s="259" t="s">
+        <v>199</v>
+      </c>
+      <c r="J12" s="209" t="s">
+        <v>200</v>
+      </c>
+      <c r="K12" s="209" t="s">
+        <v>86</v>
+      </c>
+      <c r="L12" s="282" t="s">
+        <v>201</v>
+      </c>
+      <c r="M12" s="209" t="s">
+        <v>135</v>
+      </c>
+      <c r="N12" s="209" t="s">
+        <v>136</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="65">
         <v>100</v>
       </c>
@@ -55743,8 +57181,23 @@
       <c r="G13" s="158">
         <v>1.055003364185649E-4</v>
       </c>
+      <c r="I13" s="86">
+        <v>3.0894501581599202E-3</v>
+      </c>
+      <c r="J13" s="86">
+        <v>3.9254814803400356E-4</v>
+      </c>
+      <c r="K13" s="86">
+        <v>1.5025047425521219E-4</v>
+      </c>
+      <c r="L13" s="86">
+        <v>1.8673101203436844E-4</v>
+      </c>
+      <c r="M13" s="86">
+        <v>1.4580348121884931E-4</v>
+      </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="65">
         <v>50</v>
       </c>
@@ -55764,7 +57217,7 @@
         <v>1.0834865087961357E-4</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="65">
         <v>20</v>
       </c>
@@ -55784,7 +57237,7 @@
         <v>1.3404057875159991E-4</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="65">
         <v>10</v>
       </c>
@@ -55826,27 +57279,27 @@
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="209" t="s">
-        <v>143</v>
+      <c r="C21" s="259" t="s">
+        <v>199</v>
       </c>
       <c r="D21" s="209" t="s">
-        <v>144</v>
+        <v>200</v>
       </c>
       <c r="E21" s="209" t="s">
         <v>86</v>
       </c>
       <c r="F21" s="209" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G21" s="209" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
@@ -56012,7 +57465,7 @@
         <v>3</v>
       </c>
       <c r="P2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
@@ -56035,7 +57488,7 @@
         <v>0.11072520033437649</v>
       </c>
       <c r="J3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="L3">
         <v>60</v>
@@ -56074,7 +57527,7 @@
         <v>4.9033556963699231E-2</v>
       </c>
       <c r="J4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L4">
         <v>50</v>
@@ -56133,11 +57586,11 @@
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="260" t="s">
-        <v>167</v>
+      <c r="B6" s="266" t="s">
+        <v>165</v>
       </c>
       <c r="C6" s="203" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D6" s="11">
         <v>10</v>
@@ -56152,7 +57605,7 @@
         <v>2.9546964738979273E-4</v>
       </c>
       <c r="J6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="L6">
         <v>70</v>
@@ -56172,9 +57625,9 @@
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="261"/>
+      <c r="B7" s="267"/>
       <c r="C7" s="32" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D7" s="32">
         <v>10</v>
@@ -56203,9 +57656,9 @@
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="261"/>
+      <c r="B8" s="267"/>
       <c r="C8" s="32" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D8" s="32">
         <v>10</v>
@@ -56221,9 +57674,9 @@
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="261"/>
+      <c r="B9" s="267"/>
       <c r="C9" s="32" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D9" s="13">
         <v>10</v>
@@ -56236,9 +57689,9 @@
       <c r="O9" s="2"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="262"/>
+      <c r="B10" s="268"/>
       <c r="C10" s="37" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D10" s="14">
         <v>10</v>
@@ -56248,11 +57701,11 @@
       <c r="G10" s="26"/>
     </row>
     <row r="11" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="263" t="s">
-        <v>166</v>
+      <c r="B11" s="269" t="s">
+        <v>164</v>
       </c>
       <c r="C11" s="203" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D11" s="11">
         <v>10</v>
@@ -56268,9 +57721,9 @@
       </c>
     </row>
     <row r="12" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="264"/>
+      <c r="B12" s="270"/>
       <c r="C12" s="32" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D12" s="13">
         <v>10</v>
@@ -56286,9 +57739,9 @@
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="264"/>
+      <c r="B13" s="270"/>
       <c r="C13" s="32" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="256">
@@ -56302,9 +57755,9 @@
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="264"/>
+      <c r="B14" s="270"/>
       <c r="C14" s="32" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D14" s="13">
         <v>10</v>
@@ -56320,9 +57773,9 @@
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="265"/>
+      <c r="B15" s="271"/>
       <c r="C15" s="37" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D15" s="14">
         <v>10</v>
@@ -56339,11 +57792,11 @@
       <c r="M15" s="27"/>
     </row>
     <row r="16" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="263" t="s">
-        <v>175</v>
+      <c r="B16" s="269" t="s">
+        <v>173</v>
       </c>
       <c r="C16" s="60" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D16" s="11">
         <v>60</v>
@@ -56360,9 +57813,9 @@
       <c r="M16" s="27"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="264"/>
+      <c r="B17" s="270"/>
       <c r="C17" s="33" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D17" s="13">
         <v>50</v>
@@ -56377,13 +57830,13 @@
         <v>2.1633824782506494E-4</v>
       </c>
       <c r="K17" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="264"/>
+      <c r="B18" s="270"/>
       <c r="C18" s="33" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D18" s="32">
         <v>10</v>
@@ -56402,9 +57855,9 @@
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="264"/>
+      <c r="B19" s="270"/>
       <c r="C19" s="33" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D19" s="13">
         <v>10</v>
@@ -56423,9 +57876,9 @@
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="265"/>
+      <c r="B20" s="271"/>
       <c r="C20" s="35" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D20" s="14">
         <v>10</v>
@@ -56444,11 +57897,11 @@
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="263" t="s">
-        <v>165</v>
+      <c r="B21" s="269" t="s">
+        <v>163</v>
       </c>
       <c r="C21" s="203" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D21" s="11">
         <v>10</v>
@@ -56464,9 +57917,9 @@
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="264"/>
+      <c r="B22" s="270"/>
       <c r="C22" s="32" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D22" s="13">
         <v>10</v>
@@ -56482,9 +57935,9 @@
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="264"/>
+      <c r="B23" s="270"/>
       <c r="C23" s="32" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D23" s="32">
         <v>10</v>
@@ -56500,9 +57953,9 @@
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="264"/>
+      <c r="B24" s="270"/>
       <c r="C24" s="32" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D24" s="13">
         <v>10</v>
@@ -56518,9 +57971,9 @@
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="265"/>
+      <c r="B25" s="271"/>
       <c r="C25" s="37" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D25" s="14">
         <v>10</v>
@@ -56574,7 +58027,7 @@
       <c r="F28" s="32"/>
       <c r="G28" s="32"/>
       <c r="J28" s="65" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K28" s="159">
         <v>6.1214989102953573E-4</v>
@@ -56599,7 +58052,7 @@
       <c r="F29" s="32"/>
       <c r="G29" s="32"/>
       <c r="J29" s="65" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K29" s="159">
         <v>4.1332261535864017E-4</v>
@@ -56635,10 +58088,10 @@
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B31" s="204" t="s">
+        <v>165</v>
+      </c>
+      <c r="C31" s="203" t="s">
         <v>167</v>
-      </c>
-      <c r="C31" s="203" t="s">
-        <v>169</v>
       </c>
       <c r="D31" s="20">
         <v>4.9225132747272914E-4</v>
@@ -56649,7 +58102,7 @@
       <c r="F31" s="50"/>
       <c r="G31" s="50"/>
       <c r="J31" s="65" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K31" s="159">
         <v>5.3920651388314727E-4</v>
@@ -56659,11 +58112,11 @@
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B32" s="263" t="s">
-        <v>166</v>
+      <c r="B32" s="269" t="s">
+        <v>164</v>
       </c>
       <c r="C32" s="203" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D32" s="20">
         <v>5.1511715945229235E-4</v>
@@ -56682,9 +58135,9 @@
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="264"/>
+      <c r="B33" s="270"/>
       <c r="C33" s="32" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D33" s="21">
         <v>5.4122286268811057E-4</v>
@@ -56694,9 +58147,9 @@
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="265"/>
+      <c r="B34" s="271"/>
       <c r="C34" s="33" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D34" s="21">
         <v>8.3661418433491968E-4</v>
@@ -56706,11 +58159,11 @@
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="263" t="s">
-        <v>175</v>
+      <c r="B35" s="269" t="s">
+        <v>173</v>
       </c>
       <c r="C35" s="106" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D35" s="20">
         <v>1.0125958579634009E-3</v>
@@ -56720,9 +58173,9 @@
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="264"/>
+      <c r="B36" s="270"/>
       <c r="C36" s="33" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D36" s="21">
         <v>4.8017173811219598E-4</v>
@@ -56732,23 +58185,23 @@
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="265"/>
+      <c r="B37" s="271"/>
       <c r="C37" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="263" t="s">
-        <v>165</v>
+      <c r="B38" s="269" t="s">
+        <v>163</v>
       </c>
       <c r="C38" s="60" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D38" s="20">
         <v>1.1018179587244338E-3</v>
@@ -56758,9 +58211,9 @@
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="264"/>
+      <c r="B39" s="270"/>
       <c r="C39" s="33" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D39" s="21">
         <v>5.3920651388314727E-4</v>
@@ -56770,9 +58223,9 @@
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="265"/>
+      <c r="B40" s="271"/>
       <c r="C40" s="35" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D40" s="22">
         <v>1.5595266951194558E-3</v>
@@ -56802,7 +58255,7 @@
   <dimension ref="B2:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="B14" sqref="B2:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56824,7 +58277,7 @@
         <v>129</v>
       </c>
       <c r="F2" s="73" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
@@ -56861,24 +58314,24 @@
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="65" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C5" s="65"/>
       <c r="D5" s="65"/>
       <c r="E5" s="65" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F5" s="65"/>
       <c r="I5" s="86"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="65" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C6" s="65"/>
       <c r="D6" s="65"/>
       <c r="E6" s="65" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F6" s="65"/>
     </row>
@@ -56900,17 +58353,17 @@
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="266" t="s">
-        <v>153</v>
-      </c>
-      <c r="C9" s="266"/>
-      <c r="D9" s="266"/>
-      <c r="E9" s="266"/>
+      <c r="B9" s="272" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" s="272"/>
+      <c r="D9" s="272"/>
+      <c r="E9" s="272"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="65"/>
       <c r="C10" s="65" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D10" s="65"/>
       <c r="E10" s="65" t="s">
@@ -56934,11 +58387,11 @@
         <v>120</v>
       </c>
       <c r="C12" s="65" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D12" s="65"/>
       <c r="E12" s="65" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
@@ -56946,11 +58399,11 @@
         <v>121</v>
       </c>
       <c r="C13" s="65" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D13" s="65"/>
       <c r="E13" s="65" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
@@ -56958,11 +58411,11 @@
         <v>127</v>
       </c>
       <c r="C14" s="65" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D14" s="65"/>
       <c r="E14" s="65" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F14" s="2">
         <f>0.0008</f>
@@ -56998,55 +58451,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C1" s="266" t="s">
+      <c r="C1" s="272" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="266"/>
-      <c r="E1" s="266"/>
-      <c r="F1" s="266"/>
-      <c r="G1" s="266"/>
+      <c r="D1" s="272"/>
+      <c r="E1" s="272"/>
+      <c r="F1" s="272"/>
+      <c r="G1" s="272"/>
       <c r="H1" s="100"/>
-      <c r="I1" s="266" t="s">
+      <c r="I1" s="272" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="266"/>
-      <c r="K1" s="266"/>
-      <c r="L1" s="266"/>
-      <c r="M1" s="266"/>
+      <c r="J1" s="272"/>
+      <c r="K1" s="272"/>
+      <c r="L1" s="272"/>
+      <c r="M1" s="272"/>
       <c r="N1" s="100"/>
-      <c r="O1" s="266" t="s">
+      <c r="O1" s="272" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="266"/>
-      <c r="Q1" s="266"/>
-      <c r="R1" s="266"/>
-      <c r="S1" s="266"/>
+      <c r="P1" s="272"/>
+      <c r="Q1" s="272"/>
+      <c r="R1" s="272"/>
+      <c r="S1" s="272"/>
       <c r="T1" s="153"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C2" s="267" t="s">
+      <c r="C2" s="273" t="s">
         <v>125</v>
       </c>
-      <c r="D2" s="268"/>
-      <c r="E2" s="268"/>
-      <c r="F2" s="268"/>
-      <c r="G2" s="269"/>
+      <c r="D2" s="274"/>
+      <c r="E2" s="274"/>
+      <c r="F2" s="274"/>
+      <c r="G2" s="275"/>
       <c r="H2" s="99"/>
-      <c r="I2" s="267" t="s">
+      <c r="I2" s="273" t="s">
         <v>125</v>
       </c>
-      <c r="J2" s="268"/>
-      <c r="K2" s="268"/>
-      <c r="L2" s="268"/>
-      <c r="M2" s="269"/>
+      <c r="J2" s="274"/>
+      <c r="K2" s="274"/>
+      <c r="L2" s="274"/>
+      <c r="M2" s="275"/>
       <c r="N2" s="99"/>
-      <c r="O2" s="267" t="s">
+      <c r="O2" s="273" t="s">
         <v>125</v>
       </c>
-      <c r="P2" s="268"/>
-      <c r="Q2" s="268"/>
-      <c r="R2" s="268"/>
-      <c r="S2" s="269"/>
+      <c r="P2" s="274"/>
+      <c r="Q2" s="274"/>
+      <c r="R2" s="274"/>
+      <c r="S2" s="275"/>
       <c r="T2" s="154"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -57375,51 +58828,58 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X39"/>
+  <dimension ref="A1:AE39"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C1" s="267" t="s">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="C1" s="273" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="268"/>
-      <c r="E1" s="268"/>
-      <c r="F1" s="269"/>
-      <c r="G1" s="267" t="s">
+      <c r="D1" s="274"/>
+      <c r="E1" s="274"/>
+      <c r="F1" s="275"/>
+      <c r="G1" s="273" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="268"/>
-      <c r="I1" s="268"/>
-      <c r="J1" s="269"/>
-      <c r="K1" s="270" t="s">
+      <c r="H1" s="274"/>
+      <c r="I1" s="274"/>
+      <c r="J1" s="275"/>
+      <c r="K1" s="276" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="270"/>
-      <c r="M1" s="270"/>
-      <c r="N1" s="270"/>
-      <c r="O1" s="271" t="s">
+      <c r="L1" s="276"/>
+      <c r="M1" s="276"/>
+      <c r="N1" s="276"/>
+      <c r="O1" s="277" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="266"/>
-      <c r="Q1" s="266"/>
-      <c r="R1" s="272"/>
+      <c r="P1" s="272"/>
+      <c r="Q1" s="272"/>
+      <c r="R1" s="278"/>
       <c r="S1" s="114"/>
       <c r="U1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
@@ -57478,7 +58938,7 @@
         <v>66</v>
       </c>
       <c r="U2" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="V2" s="48" t="s">
         <v>1</v>
@@ -57487,20 +58947,33 @@
         <v>2</v>
       </c>
       <c r="X2" s="61" t="s">
-        <v>190</v>
+        <v>188</v>
+      </c>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="65" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC2" s="65" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD2" s="65" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE2" s="73" t="s">
+        <v>143</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>119</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C3" s="273"/>
-      <c r="D3" s="274"/>
-      <c r="E3" s="274"/>
-      <c r="F3" s="275"/>
+      <c r="C3" s="279"/>
+      <c r="D3" s="280"/>
+      <c r="E3" s="280"/>
+      <c r="F3" s="281"/>
       <c r="G3" s="120">
         <v>10.774363582992548</v>
       </c>
@@ -57538,30 +59011,45 @@
         <v>0.12892056761072984</v>
       </c>
       <c r="S3" s="18"/>
-      <c r="U3" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="V3" s="30">
-        <v>5.6862138099299395</v>
-      </c>
-      <c r="W3" s="103">
-        <v>1.7229788549101105E-4</v>
-      </c>
-      <c r="X3" s="70">
-        <v>1.2751155160426627E-5</v>
+      <c r="U3" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="V3" s="106">
+        <v>3.1701022325224222</v>
+      </c>
+      <c r="W3" s="108">
+        <v>0.33599820758808907</v>
+      </c>
+      <c r="X3" s="117">
+        <v>0.19377587656055043</v>
+      </c>
+      <c r="AA3" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB3" s="65">
+        <v>2000</v>
+      </c>
+      <c r="AC3" s="65">
+        <v>2000</v>
+      </c>
+      <c r="AD3" s="65">
+        <v>1000</v>
+      </c>
+      <c r="AE3" s="73">
+        <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>119</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="271"/>
-      <c r="D4" s="266"/>
-      <c r="E4" s="266"/>
-      <c r="F4" s="272"/>
+      <c r="C4" s="277"/>
+      <c r="D4" s="272"/>
+      <c r="E4" s="272"/>
+      <c r="F4" s="278"/>
       <c r="G4" s="121">
         <v>11.02331128375662</v>
       </c>
@@ -57600,19 +59088,32 @@
       </c>
       <c r="S4" s="17"/>
       <c r="U4" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="V4" s="30">
-        <v>4.3473319473372438</v>
+        <v>191</v>
+      </c>
+      <c r="V4" s="104">
+        <v>3.1687501118712817</v>
       </c>
       <c r="W4" s="103">
-        <v>3.5516194937243476E-3</v>
+        <v>1.7693120572754266E-4</v>
       </c>
       <c r="X4" s="70">
-        <v>6.393800033238117E-3</v>
-      </c>
+        <v>1.1424439162921568E-5</v>
+      </c>
+      <c r="AA4" s="65" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB4" s="158">
+        <v>4.0247156012460532E-2</v>
+      </c>
+      <c r="AC4" s="158">
+        <v>1.5723195585830318E-4</v>
+      </c>
+      <c r="AD4" s="158">
+        <v>1.7229788549101105E-4</v>
+      </c>
+      <c r="AE4" s="65"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>108</v>
       </c>
@@ -57661,19 +59162,28 @@
       </c>
       <c r="S5" s="16"/>
       <c r="U5" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="V5" s="104">
+        <v>5.6862138099299395</v>
+      </c>
+      <c r="W5" s="103">
+        <v>1.7229788549101105E-4</v>
+      </c>
+      <c r="X5" s="70">
+        <v>1.2751155160426627E-5</v>
+      </c>
+      <c r="AA5" s="65" t="s">
         <v>132</v>
       </c>
-      <c r="V5" s="30">
-        <v>4.147073000231039</v>
-      </c>
-      <c r="W5" s="103">
-        <v>7.7184528176727019E-3</v>
-      </c>
-      <c r="X5" s="70">
-        <v>4.8516322387169115E-3</v>
-      </c>
+      <c r="AB5" s="65"/>
+      <c r="AC5" s="65"/>
+      <c r="AD5" s="65" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE5" s="65"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>115</v>
       </c>
@@ -57721,20 +59231,29 @@
         <v>1.3649915563117912E-3</v>
       </c>
       <c r="S6" s="16"/>
-      <c r="U6" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="V6" s="31">
-        <v>5.835479156862351</v>
-      </c>
-      <c r="W6" s="112">
-        <v>4.7137710453766862E-3</v>
-      </c>
-      <c r="X6" s="119">
-        <v>3.0179830098397511E-3</v>
-      </c>
+      <c r="U6" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="V6" s="104">
+        <v>4.3473319473372438</v>
+      </c>
+      <c r="W6" s="262">
+        <v>3.5516194937243476E-3</v>
+      </c>
+      <c r="X6" s="70">
+        <v>6.393800033238117E-3</v>
+      </c>
+      <c r="AA6" s="65" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB6" s="65"/>
+      <c r="AC6" s="65"/>
+      <c r="AD6" s="65" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE6" s="65"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>36</v>
       </c>
@@ -57782,8 +59301,26 @@
         <v>5.4996717908125303E-3</v>
       </c>
       <c r="S7" s="18"/>
+      <c r="U7" s="212" t="s">
+        <v>196</v>
+      </c>
+      <c r="AA7" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB7" s="159">
+        <v>6.3612960374089705E-4</v>
+      </c>
+      <c r="AC7" s="158">
+        <v>1.8006410808587452E-3</v>
+      </c>
+      <c r="AD7" s="158">
+        <v>3.5516194937243476E-3</v>
+      </c>
+      <c r="AE7" s="158">
+        <v>1.4352155935232788E-3</v>
+      </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>36</v>
       </c>
@@ -57831,8 +59368,20 @@
         <v>3.588675468030877E-3</v>
       </c>
       <c r="S8" s="17"/>
+      <c r="U8" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="V8" s="104">
+        <v>4.147073000231039</v>
+      </c>
+      <c r="W8" s="261">
+        <v>7.7184528176727019E-3</v>
+      </c>
+      <c r="X8" s="70">
+        <v>4.8516322387169115E-3</v>
+      </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>112</v>
       </c>
@@ -57880,8 +59429,26 @@
         <v>1.1863301113334344E-3</v>
       </c>
       <c r="S9" s="16"/>
+      <c r="U9" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="V9" s="110">
+        <v>5.835479156862351</v>
+      </c>
+      <c r="W9" s="264">
+        <v>4.7137710453766862E-3</v>
+      </c>
+      <c r="X9" s="119">
+        <v>3.0179830098397511E-3</v>
+      </c>
+      <c r="AA9" s="272" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB9" s="272"/>
+      <c r="AC9" s="272"/>
+      <c r="AD9" s="272"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>112</v>
       </c>
@@ -57929,8 +59496,28 @@
         <v>1.3152318182401298E-3</v>
       </c>
       <c r="S10" s="16"/>
+      <c r="U10" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="V10" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="W10" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="X10" s="61" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA10" s="65"/>
+      <c r="AB10" s="65" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC10" s="65"/>
+      <c r="AD10" s="65" t="s">
+        <v>129</v>
+      </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>115</v>
       </c>
@@ -57978,8 +59565,30 @@
         <v>6.7811121786916645E-3</v>
       </c>
       <c r="S11" s="18"/>
+      <c r="U11" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="V11" s="106">
+        <v>3.2695452254447548</v>
+      </c>
+      <c r="W11" s="263">
+        <v>1.2701010008458137E-3</v>
+      </c>
+      <c r="X11" s="117">
+        <v>8.6425326017219146E-4</v>
+      </c>
+      <c r="AA11" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB11" s="65">
+        <v>2000</v>
+      </c>
+      <c r="AC11" s="65"/>
+      <c r="AD11" s="65">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>115</v>
       </c>
@@ -58027,8 +59636,30 @@
         <v>6.2504146170973942E-3</v>
       </c>
       <c r="S12" s="17"/>
+      <c r="U12" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="V12" s="104">
+        <v>3.3506706803043551</v>
+      </c>
+      <c r="W12" s="21">
+        <v>2.0450044847405025E-3</v>
+      </c>
+      <c r="X12" s="70">
+        <v>2.7191494080422429E-3</v>
+      </c>
+      <c r="AA12" s="65" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB12" s="65" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC12" s="65"/>
+      <c r="AD12" s="65" t="s">
+        <v>150</v>
+      </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>122</v>
       </c>
@@ -58076,8 +59707,30 @@
         <v>2.6276170301547694E-3</v>
       </c>
       <c r="S13" s="16"/>
+      <c r="U13" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="V13" s="104">
+        <v>3.2823684828678625</v>
+      </c>
+      <c r="W13" s="260">
+        <v>2.0417316483263385E-2</v>
+      </c>
+      <c r="X13" s="70">
+        <v>6.9208387428028678E-2</v>
+      </c>
+      <c r="AA13" s="65" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB13" s="65" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC13" s="65"/>
+      <c r="AD13" s="65" t="s">
+        <v>149</v>
+      </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>122</v>
       </c>
@@ -58125,6 +59778,38 @@
         <v>2.2454030196787382E-3</v>
       </c>
       <c r="S14" s="17"/>
+      <c r="U14" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="V14" s="110">
+        <v>3.7332056387000452</v>
+      </c>
+      <c r="W14" s="265">
+        <v>1.6267312165700726E-3</v>
+      </c>
+      <c r="X14" s="119">
+        <v>1.7047042683772842E-3</v>
+      </c>
+      <c r="AA14" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB14" s="65" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC14" s="65"/>
+      <c r="AD14" s="65" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE14" s="2">
+        <f>0.0008</f>
+        <v>8.0000000000000004E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T28" s="2"/>
+    </row>
+    <row r="29" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T29" s="2"/>
     </row>
     <row r="38" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q38" s="160"/>
@@ -58135,7 +59820,8 @@
       <c r="R39" s="160"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="AA9:AD9"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="K1:N1"/>
